--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,21 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['7', '22', '27', '60']</t>
+  </si>
+  <si>
+    <t>['65', '67']</t>
+  </si>
+  <si>
+    <t>['45+2', '71', '90+4']</t>
+  </si>
+  <si>
+    <t>['64', '90+5']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -880,9 +895,6 @@
     <t>['1', '51']</t>
   </si>
   <si>
-    <t>['8']</t>
-  </si>
-  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -992,6 +1004,12 @@
   </si>
   <si>
     <t>['6', '64']</t>
+  </si>
+  <si>
+    <t>['67', '76', '90+3']</t>
+  </si>
+  <si>
+    <t>['34', '60']</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1788,7 +1806,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1875,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT3">
         <v>0.93</v>
@@ -1979,7 +1997,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2170,7 +2188,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2361,7 +2379,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2451,7 +2469,7 @@
         <v>1.57</v>
       </c>
       <c r="AT6">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2639,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT7">
         <v>1.36</v>
@@ -2743,7 +2761,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2833,7 +2851,7 @@
         <v>1.36</v>
       </c>
       <c r="AT8">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3021,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT9">
         <v>0.86</v>
@@ -3215,7 +3233,7 @@
         <v>1.93</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3403,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT11">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3507,7 +3525,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3594,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT12">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3698,7 +3716,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3788,7 +3806,7 @@
         <v>1.36</v>
       </c>
       <c r="AT13">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3976,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT14">
         <v>1.79</v>
@@ -4167,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT15">
         <v>1.36</v>
@@ -4361,7 +4379,7 @@
         <v>2.14</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4462,7 +4480,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4844,7 +4862,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -4931,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT19">
         <v>1.36</v>
@@ -5122,10 +5140,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT20">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU20">
         <v>2.75</v>
@@ -5226,7 +5244,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5417,7 +5435,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -5608,7 +5626,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5886,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT24">
         <v>1.21</v>
@@ -5990,7 +6008,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6080,7 +6098,7 @@
         <v>2.14</v>
       </c>
       <c r="AT25">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU25">
         <v>2.62</v>
@@ -6181,7 +6199,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6372,7 +6390,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6459,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT27">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU27">
         <v>1.46</v>
@@ -6563,7 +6581,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6653,7 +6671,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU28">
         <v>2.8</v>
@@ -6754,7 +6772,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6844,7 +6862,7 @@
         <v>1.36</v>
       </c>
       <c r="AT29">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU29">
         <v>1.35</v>
@@ -7032,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT30">
         <v>1.79</v>
@@ -7136,7 +7154,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -7327,7 +7345,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7414,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT32">
         <v>1.36</v>
@@ -7608,7 +7626,7 @@
         <v>1.36</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7799,7 +7817,7 @@
         <v>1.93</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU34">
         <v>2.04</v>
@@ -7900,7 +7918,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8181,7 +8199,7 @@
         <v>1.21</v>
       </c>
       <c r="AT36">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU36">
         <v>1.72</v>
@@ -8369,7 +8387,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT37">
         <v>0.86</v>
@@ -8560,7 +8578,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT38">
         <v>1.21</v>
@@ -8664,7 +8682,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8751,10 +8769,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT39">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU39">
         <v>2.37</v>
@@ -8855,7 +8873,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8945,7 +8963,7 @@
         <v>1.93</v>
       </c>
       <c r="AT40">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU40">
         <v>1.79</v>
@@ -9046,7 +9064,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9237,7 +9255,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -9324,7 +9342,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT42">
         <v>0.86</v>
@@ -9428,7 +9446,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -9518,7 +9536,7 @@
         <v>1.21</v>
       </c>
       <c r="AT43">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU43">
         <v>1.62</v>
@@ -9619,7 +9637,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9706,7 +9724,7 @@
         <v>0.67</v>
       </c>
       <c r="AS44">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT44">
         <v>1.36</v>
@@ -10088,10 +10106,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU46">
         <v>2.32</v>
@@ -10192,7 +10210,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10383,7 +10401,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10574,7 +10592,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11046,7 +11064,7 @@
         <v>2</v>
       </c>
       <c r="AT51">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU51">
         <v>2.47</v>
@@ -11147,7 +11165,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q52">
         <v>13</v>
@@ -11234,7 +11252,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT52">
         <v>0.86</v>
@@ -11338,7 +11356,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11616,10 +11634,10 @@
         <v>0.67</v>
       </c>
       <c r="AS54">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT54">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU54">
         <v>2.78</v>
@@ -11810,7 +11828,7 @@
         <v>1.38</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU55">
         <v>1.37</v>
@@ -11998,10 +12016,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT56">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU56">
         <v>1.94</v>
@@ -12380,10 +12398,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU58">
         <v>2.45</v>
@@ -12484,7 +12502,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12571,7 +12589,7 @@
         <v>1.25</v>
       </c>
       <c r="AS59">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT59">
         <v>1.36</v>
@@ -12675,7 +12693,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12765,7 +12783,7 @@
         <v>1.93</v>
       </c>
       <c r="AT60">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU60">
         <v>1.56</v>
@@ -12866,7 +12884,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12956,7 +12974,7 @@
         <v>2.14</v>
       </c>
       <c r="AT61">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU61">
         <v>2.11</v>
@@ -13057,7 +13075,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13144,10 +13162,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT62">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU62">
         <v>2.01</v>
@@ -13335,7 +13353,7 @@
         <v>3</v>
       </c>
       <c r="AS63">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT63">
         <v>0.86</v>
@@ -13717,7 +13735,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT65">
         <v>0.93</v>
@@ -13821,7 +13839,7 @@
         <v>84</v>
       </c>
       <c r="P66" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13908,7 +13926,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT66">
         <v>0.86</v>
@@ -14102,7 +14120,7 @@
         <v>1.21</v>
       </c>
       <c r="AT67">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU67">
         <v>1.68</v>
@@ -14203,7 +14221,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14290,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT68">
         <v>0.86</v>
@@ -14394,7 +14412,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14484,7 +14502,7 @@
         <v>2</v>
       </c>
       <c r="AT69">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU69">
         <v>2.52</v>
@@ -14585,7 +14603,7 @@
         <v>104</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14675,7 +14693,7 @@
         <v>1.93</v>
       </c>
       <c r="AT70">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU70">
         <v>1.77</v>
@@ -14863,7 +14881,7 @@
         <v>1.75</v>
       </c>
       <c r="AS71">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT71">
         <v>1.79</v>
@@ -15158,7 +15176,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15245,7 +15263,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT73">
         <v>1.36</v>
@@ -15349,7 +15367,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15439,7 +15457,7 @@
         <v>1.36</v>
       </c>
       <c r="AT74">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU74">
         <v>1.58</v>
@@ -15818,10 +15836,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT76">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU76">
         <v>1.91</v>
@@ -16009,7 +16027,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT77">
         <v>1</v>
@@ -16113,7 +16131,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16200,7 +16218,7 @@
         <v>2.25</v>
       </c>
       <c r="AS78">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT78">
         <v>0.86</v>
@@ -16585,7 +16603,7 @@
         <v>1.57</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU80">
         <v>1.85</v>
@@ -16773,7 +16791,7 @@
         <v>0.8</v>
       </c>
       <c r="AS81">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT81">
         <v>0.93</v>
@@ -17068,7 +17086,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17155,7 +17173,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT83">
         <v>1.21</v>
@@ -17259,7 +17277,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17346,7 +17364,7 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT84">
         <v>1.79</v>
@@ -17540,7 +17558,7 @@
         <v>1.93</v>
       </c>
       <c r="AT85">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU85">
         <v>1.6</v>
@@ -17641,7 +17659,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17731,7 +17749,7 @@
         <v>1.21</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU86">
         <v>1.67</v>
@@ -17832,7 +17850,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17919,7 +17937,7 @@
         <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT87">
         <v>0.86</v>
@@ -18113,7 +18131,7 @@
         <v>1.36</v>
       </c>
       <c r="AT88">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -18304,7 +18322,7 @@
         <v>1.38</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU89">
         <v>1.54</v>
@@ -18405,7 +18423,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18877,7 +18895,7 @@
         <v>1.93</v>
       </c>
       <c r="AT92">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU92">
         <v>1.7</v>
@@ -19169,7 +19187,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19551,7 +19569,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19638,7 +19656,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT96">
         <v>1.79</v>
@@ -19832,7 +19850,7 @@
         <v>1.57</v>
       </c>
       <c r="AT97">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU97">
         <v>1.87</v>
@@ -20020,10 +20038,10 @@
         <v>0.6</v>
       </c>
       <c r="AS98">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU98">
         <v>1.64</v>
@@ -20211,10 +20229,10 @@
         <v>0.67</v>
       </c>
       <c r="AS99">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT99">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU99">
         <v>1.7</v>
@@ -20402,7 +20420,7 @@
         <v>0.83</v>
       </c>
       <c r="AS100">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT100">
         <v>0.93</v>
@@ -20593,10 +20611,10 @@
         <v>0.5</v>
       </c>
       <c r="AS101">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT101">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU101">
         <v>1.78</v>
@@ -20784,10 +20802,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT102">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU102">
         <v>2.23</v>
@@ -20978,7 +20996,7 @@
         <v>2</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU103">
         <v>2.42</v>
@@ -21079,7 +21097,7 @@
         <v>136</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21166,10 +21184,10 @@
         <v>1.33</v>
       </c>
       <c r="AS104">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT104">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU104">
         <v>1.63</v>
@@ -21270,7 +21288,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21357,10 +21375,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT105">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU105">
         <v>1.8</v>
@@ -21461,7 +21479,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21652,7 +21670,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21843,7 +21861,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -22034,7 +22052,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -23076,10 +23094,10 @@
         <v>0.33</v>
       </c>
       <c r="AS114">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT114">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU114">
         <v>1.76</v>
@@ -23180,7 +23198,7 @@
         <v>164</v>
       </c>
       <c r="P115" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23267,10 +23285,10 @@
         <v>0.86</v>
       </c>
       <c r="AS115">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT115">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU115">
         <v>1.32</v>
@@ -23461,7 +23479,7 @@
         <v>2</v>
       </c>
       <c r="AT116">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU116">
         <v>2.47</v>
@@ -23562,7 +23580,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23649,7 +23667,7 @@
         <v>0.86</v>
       </c>
       <c r="AS117">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT117">
         <v>0.93</v>
@@ -23840,10 +23858,10 @@
         <v>0.57</v>
       </c>
       <c r="AS118">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT118">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU118">
         <v>1.63</v>
@@ -23944,7 +23962,7 @@
         <v>166</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24031,10 +24049,10 @@
         <v>0.5</v>
       </c>
       <c r="AS119">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU119">
         <v>1.67</v>
@@ -24222,10 +24240,10 @@
         <v>1.57</v>
       </c>
       <c r="AS120">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT120">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU120">
         <v>2.24</v>
@@ -24413,10 +24431,10 @@
         <v>0.67</v>
       </c>
       <c r="AS121">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU121">
         <v>1.8</v>
@@ -24517,7 +24535,7 @@
         <v>139</v>
       </c>
       <c r="P122" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24607,7 +24625,7 @@
         <v>2.14</v>
       </c>
       <c r="AT122">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU122">
         <v>2.21</v>
@@ -24708,7 +24726,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24795,7 +24813,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT123">
         <v>1.79</v>
@@ -25180,7 +25198,7 @@
         <v>1.36</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU125">
         <v>1.78</v>
@@ -25281,7 +25299,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25368,7 +25386,7 @@
         <v>1.29</v>
       </c>
       <c r="AS126">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT126">
         <v>1.21</v>
@@ -25559,10 +25577,10 @@
         <v>0.71</v>
       </c>
       <c r="AS127">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT127">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU127">
         <v>1.34</v>
@@ -25750,10 +25768,10 @@
         <v>0.29</v>
       </c>
       <c r="AS128">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT128">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU128">
         <v>1.65</v>
@@ -25854,7 +25872,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25944,7 +25962,7 @@
         <v>2</v>
       </c>
       <c r="AT129">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU129">
         <v>2.42</v>
@@ -26045,7 +26063,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26323,7 +26341,7 @@
         <v>1.43</v>
       </c>
       <c r="AS131">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT131">
         <v>0.86</v>
@@ -26427,7 +26445,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26809,7 +26827,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26899,7 +26917,7 @@
         <v>1.38</v>
       </c>
       <c r="AT134">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU134">
         <v>1.59</v>
@@ -27087,7 +27105,7 @@
         <v>1.14</v>
       </c>
       <c r="AS135">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT135">
         <v>0.86</v>
@@ -27191,7 +27209,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -27281,7 +27299,7 @@
         <v>1.57</v>
       </c>
       <c r="AT136">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU136">
         <v>1.97</v>
@@ -27382,7 +27400,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27472,7 +27490,7 @@
         <v>1.93</v>
       </c>
       <c r="AT137">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU137">
         <v>1.63</v>
@@ -27573,7 +27591,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27764,7 +27782,7 @@
         <v>181</v>
       </c>
       <c r="P139" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27854,7 +27872,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU139">
         <v>2.41</v>
@@ -28042,7 +28060,7 @@
         <v>1.63</v>
       </c>
       <c r="AS140">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT140">
         <v>1.36</v>
@@ -28233,10 +28251,10 @@
         <v>0.44</v>
       </c>
       <c r="AS141">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT141">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU141">
         <v>1.32</v>
@@ -28337,7 +28355,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -28427,7 +28445,7 @@
         <v>1.36</v>
       </c>
       <c r="AT142">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU142">
         <v>1.75</v>
@@ -28528,7 +28546,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28615,7 +28633,7 @@
         <v>0.43</v>
       </c>
       <c r="AS143">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28719,7 +28737,7 @@
         <v>184</v>
       </c>
       <c r="P144" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -28806,10 +28824,10 @@
         <v>0.63</v>
       </c>
       <c r="AS144">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT144">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU144">
         <v>1.66</v>
@@ -28910,7 +28928,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29101,7 +29119,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29191,7 +29209,7 @@
         <v>1.38</v>
       </c>
       <c r="AT146">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU146">
         <v>1.66</v>
@@ -29570,7 +29588,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT148">
         <v>0.86</v>
@@ -29761,10 +29779,10 @@
         <v>0.44</v>
       </c>
       <c r="AS149">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT149">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU149">
         <v>1.71</v>
@@ -29955,7 +29973,7 @@
         <v>1.93</v>
       </c>
       <c r="AT150">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU150">
         <v>1.53</v>
@@ -30143,7 +30161,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT151">
         <v>0.93</v>
@@ -30247,7 +30265,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30334,7 +30352,7 @@
         <v>1.25</v>
       </c>
       <c r="AS152">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT152">
         <v>1.21</v>
@@ -30438,7 +30456,7 @@
         <v>189</v>
       </c>
       <c r="P153" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30525,7 +30543,7 @@
         <v>1.44</v>
       </c>
       <c r="AS153">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT153">
         <v>1.36</v>
@@ -30629,7 +30647,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30910,7 +30928,7 @@
         <v>1.38</v>
       </c>
       <c r="AT155">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU155">
         <v>1.73</v>
@@ -31098,10 +31116,10 @@
         <v>1.6</v>
       </c>
       <c r="AS156">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT156">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU156">
         <v>1.3</v>
@@ -31289,7 +31307,7 @@
         <v>1.11</v>
       </c>
       <c r="AS157">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT157">
         <v>0.86</v>
@@ -31393,7 +31411,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q158">
         <v>9</v>
@@ -31480,7 +31498,7 @@
         <v>1.22</v>
       </c>
       <c r="AS158">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT158">
         <v>1.36</v>
@@ -31584,7 +31602,7 @@
         <v>147</v>
       </c>
       <c r="P159" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31775,7 +31793,7 @@
         <v>194</v>
       </c>
       <c r="P160" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -31865,7 +31883,7 @@
         <v>1.36</v>
       </c>
       <c r="AT160">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU160">
         <v>1.72</v>
@@ -32157,7 +32175,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32435,7 +32453,7 @@
         <v>0.38</v>
       </c>
       <c r="AS163">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT163">
         <v>1</v>
@@ -32539,7 +32557,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32629,7 +32647,7 @@
         <v>1.93</v>
       </c>
       <c r="AT164">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU164">
         <v>1.65</v>
@@ -32817,10 +32835,10 @@
         <v>0.4</v>
       </c>
       <c r="AS165">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT165">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU165">
         <v>1.61</v>
@@ -33008,10 +33026,10 @@
         <v>0.7</v>
       </c>
       <c r="AS166">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT166">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU166">
         <v>2.13</v>
@@ -33112,7 +33130,7 @@
         <v>199</v>
       </c>
       <c r="P167" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -33202,7 +33220,7 @@
         <v>2.14</v>
       </c>
       <c r="AT167">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU167">
         <v>2.08</v>
@@ -33303,7 +33321,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q168">
         <v>11</v>
@@ -33390,10 +33408,10 @@
         <v>0.7</v>
       </c>
       <c r="AS168">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT168">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU168">
         <v>1.79</v>
@@ -33494,7 +33512,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33581,10 +33599,10 @@
         <v>0.8</v>
       </c>
       <c r="AS169">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT169">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU169">
         <v>1.69</v>
@@ -34154,10 +34172,10 @@
         <v>0.45</v>
       </c>
       <c r="AS172">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT172">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU172">
         <v>1.82</v>
@@ -34348,7 +34366,7 @@
         <v>1.57</v>
       </c>
       <c r="AT173">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU173">
         <v>1.83</v>
@@ -34449,7 +34467,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34536,7 +34554,7 @@
         <v>0.9</v>
       </c>
       <c r="AS174">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT174">
         <v>0.86</v>
@@ -34727,7 +34745,7 @@
         <v>1.18</v>
       </c>
       <c r="AS175">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT175">
         <v>0.93</v>
@@ -34831,7 +34849,7 @@
         <v>89</v>
       </c>
       <c r="P176" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35109,7 +35127,7 @@
         <v>0.9</v>
       </c>
       <c r="AS177">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT177">
         <v>0.86</v>
@@ -35213,7 +35231,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35404,7 +35422,7 @@
         <v>84</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35685,7 +35703,7 @@
         <v>1.21</v>
       </c>
       <c r="AT180">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU180">
         <v>1.67</v>
@@ -35876,7 +35894,7 @@
         <v>1.38</v>
       </c>
       <c r="AT181">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU181">
         <v>1.7</v>
@@ -36168,7 +36186,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36359,7 +36377,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q184">
         <v>1</v>
@@ -36446,10 +36464,10 @@
         <v>1.18</v>
       </c>
       <c r="AS184">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT184">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU184">
         <v>1.6</v>
@@ -36640,7 +36658,7 @@
         <v>1.36</v>
       </c>
       <c r="AT185">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU185">
         <v>1.77</v>
@@ -36741,7 +36759,7 @@
         <v>210</v>
       </c>
       <c r="P186" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q186">
         <v>9</v>
@@ -37019,7 +37037,7 @@
         <v>1.73</v>
       </c>
       <c r="AS187">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT187">
         <v>1.36</v>
@@ -37210,10 +37228,10 @@
         <v>0.91</v>
       </c>
       <c r="AS188">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT188">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU188">
         <v>1.82</v>
@@ -37404,7 +37422,7 @@
         <v>1.93</v>
       </c>
       <c r="AT189">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU189">
         <v>1.57</v>
@@ -37505,7 +37523,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37592,7 +37610,7 @@
         <v>1.27</v>
       </c>
       <c r="AS190">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT190">
         <v>1.36</v>
@@ -37696,7 +37714,7 @@
         <v>84</v>
       </c>
       <c r="P191" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -37783,7 +37801,7 @@
         <v>0.7</v>
       </c>
       <c r="AS191">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT191">
         <v>1</v>
@@ -38168,7 +38186,7 @@
         <v>1.21</v>
       </c>
       <c r="AT193">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU193">
         <v>1.58</v>
@@ -38269,7 +38287,7 @@
         <v>215</v>
       </c>
       <c r="P194" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38359,7 +38377,7 @@
         <v>1.93</v>
       </c>
       <c r="AT194">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU194">
         <v>1.59</v>
@@ -38460,7 +38478,7 @@
         <v>84</v>
       </c>
       <c r="P195" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q195">
         <v>10</v>
@@ -38547,7 +38565,7 @@
         <v>0.82</v>
       </c>
       <c r="AS195">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT195">
         <v>0.86</v>
@@ -38651,7 +38669,7 @@
         <v>84</v>
       </c>
       <c r="P196" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -38842,7 +38860,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -38929,10 +38947,10 @@
         <v>1.33</v>
       </c>
       <c r="AS197">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT197">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU197">
         <v>1.76</v>
@@ -39120,7 +39138,7 @@
         <v>1</v>
       </c>
       <c r="AS198">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT198">
         <v>0.86</v>
@@ -39224,7 +39242,7 @@
         <v>218</v>
       </c>
       <c r="P199" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39314,7 +39332,7 @@
         <v>1.93</v>
       </c>
       <c r="AT199">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU199">
         <v>1.64</v>
@@ -39696,7 +39714,7 @@
         <v>1.57</v>
       </c>
       <c r="AT201">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU201">
         <v>1.73</v>
@@ -39884,10 +39902,10 @@
         <v>0.62</v>
       </c>
       <c r="AS202">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT202">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU202">
         <v>1.8</v>
@@ -39988,7 +40006,7 @@
         <v>145</v>
       </c>
       <c r="P203" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q203">
         <v>4</v>
@@ -40266,7 +40284,7 @@
         <v>1</v>
       </c>
       <c r="AS204">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT204">
         <v>0.86</v>
@@ -40370,7 +40388,7 @@
         <v>221</v>
       </c>
       <c r="P205" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40460,7 +40478,7 @@
         <v>2.14</v>
       </c>
       <c r="AT205">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU205">
         <v>1.99</v>
@@ -40752,7 +40770,7 @@
         <v>223</v>
       </c>
       <c r="P207" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -40842,7 +40860,7 @@
         <v>1.36</v>
       </c>
       <c r="AT207">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU207">
         <v>1.71</v>
@@ -41030,7 +41048,7 @@
         <v>0.91</v>
       </c>
       <c r="AS208">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT208">
         <v>1</v>
@@ -41221,10 +41239,10 @@
         <v>0.23</v>
       </c>
       <c r="AS209">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT209">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU209">
         <v>1.83</v>
@@ -41325,7 +41343,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41412,10 +41430,10 @@
         <v>1.31</v>
       </c>
       <c r="AS210">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT210">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU210">
         <v>1.72</v>
@@ -41603,10 +41621,10 @@
         <v>1</v>
       </c>
       <c r="AS211">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT211">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU211">
         <v>1.64</v>
@@ -41707,7 +41725,7 @@
         <v>136</v>
       </c>
       <c r="P212" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -41794,10 +41812,10 @@
         <v>0.62</v>
       </c>
       <c r="AS212">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT212">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU212">
         <v>1.39</v>
@@ -41898,7 +41916,7 @@
         <v>104</v>
       </c>
       <c r="P213" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q213">
         <v>8</v>
@@ -41985,7 +42003,7 @@
         <v>1.25</v>
       </c>
       <c r="AS213">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT213">
         <v>1.21</v>
@@ -42089,7 +42107,7 @@
         <v>225</v>
       </c>
       <c r="P214" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42176,7 +42194,7 @@
         <v>0.92</v>
       </c>
       <c r="AS214">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT214">
         <v>0.86</v>
@@ -42280,7 +42298,7 @@
         <v>84</v>
       </c>
       <c r="P215" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42370,7 +42388,7 @@
         <v>1.36</v>
       </c>
       <c r="AT215">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU215">
         <v>1.76</v>
@@ -42471,7 +42489,7 @@
         <v>128</v>
       </c>
       <c r="P216" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -42558,7 +42576,7 @@
         <v>0.92</v>
       </c>
       <c r="AS216">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT216">
         <v>1</v>
@@ -43235,7 +43253,7 @@
         <v>84</v>
       </c>
       <c r="P220" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -44332,6 +44350,1343 @@
       </c>
       <c r="BK225">
         <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>1565010</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44864.52083333334</v>
+      </c>
+      <c r="F226">
+        <v>29</v>
+      </c>
+      <c r="G226" t="s">
+        <v>75</v>
+      </c>
+      <c r="H226" t="s">
+        <v>76</v>
+      </c>
+      <c r="I226">
+        <v>3</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+      <c r="L226">
+        <v>4</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>232</v>
+      </c>
+      <c r="P226" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q226">
+        <v>1</v>
+      </c>
+      <c r="R226">
+        <v>6</v>
+      </c>
+      <c r="S226">
+        <v>7</v>
+      </c>
+      <c r="T226">
+        <v>3.1</v>
+      </c>
+      <c r="U226">
+        <v>2.06</v>
+      </c>
+      <c r="V226">
+        <v>3.6</v>
+      </c>
+      <c r="W226">
+        <v>1.47</v>
+      </c>
+      <c r="X226">
+        <v>2.5</v>
+      </c>
+      <c r="Y226">
+        <v>3.2</v>
+      </c>
+      <c r="Z226">
+        <v>1.3</v>
+      </c>
+      <c r="AA226">
+        <v>8.75</v>
+      </c>
+      <c r="AB226">
+        <v>1.06</v>
+      </c>
+      <c r="AC226">
+        <v>2.5</v>
+      </c>
+      <c r="AD226">
+        <v>3.1</v>
+      </c>
+      <c r="AE226">
+        <v>2.75</v>
+      </c>
+      <c r="AF226">
+        <v>1.08</v>
+      </c>
+      <c r="AG226">
+        <v>8.5</v>
+      </c>
+      <c r="AH226">
+        <v>1.4</v>
+      </c>
+      <c r="AI226">
+        <v>2.95</v>
+      </c>
+      <c r="AJ226">
+        <v>2.23</v>
+      </c>
+      <c r="AK226">
+        <v>1.62</v>
+      </c>
+      <c r="AL226">
+        <v>1.86</v>
+      </c>
+      <c r="AM226">
+        <v>1.9</v>
+      </c>
+      <c r="AN226">
+        <v>1.41</v>
+      </c>
+      <c r="AO226">
+        <v>1.33</v>
+      </c>
+      <c r="AP226">
+        <v>1.54</v>
+      </c>
+      <c r="AQ226">
+        <v>1.43</v>
+      </c>
+      <c r="AR226">
+        <v>0.79</v>
+      </c>
+      <c r="AS226">
+        <v>1.53</v>
+      </c>
+      <c r="AT226">
+        <v>0.73</v>
+      </c>
+      <c r="AU226">
+        <v>1.86</v>
+      </c>
+      <c r="AV226">
+        <v>1.57</v>
+      </c>
+      <c r="AW226">
+        <v>3.43</v>
+      </c>
+      <c r="AX226">
+        <v>1.64</v>
+      </c>
+      <c r="AY226">
+        <v>8</v>
+      </c>
+      <c r="AZ226">
+        <v>2.77</v>
+      </c>
+      <c r="BA226">
+        <v>1.35</v>
+      </c>
+      <c r="BB226">
+        <v>1.66</v>
+      </c>
+      <c r="BC226">
+        <v>2.12</v>
+      </c>
+      <c r="BD226">
+        <v>2.81</v>
+      </c>
+      <c r="BE226">
+        <v>3.74</v>
+      </c>
+      <c r="BF226">
+        <v>7</v>
+      </c>
+      <c r="BG226">
+        <v>3</v>
+      </c>
+      <c r="BH226">
+        <v>10</v>
+      </c>
+      <c r="BI226">
+        <v>10</v>
+      </c>
+      <c r="BJ226">
+        <v>17</v>
+      </c>
+      <c r="BK226">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>1565013</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44864.625</v>
+      </c>
+      <c r="F227">
+        <v>29</v>
+      </c>
+      <c r="G227" t="s">
+        <v>77</v>
+      </c>
+      <c r="H227" t="s">
+        <v>69</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>3</v>
+      </c>
+      <c r="O227" t="s">
+        <v>233</v>
+      </c>
+      <c r="P227" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q227">
+        <v>4</v>
+      </c>
+      <c r="R227">
+        <v>1</v>
+      </c>
+      <c r="S227">
+        <v>5</v>
+      </c>
+      <c r="T227">
+        <v>4</v>
+      </c>
+      <c r="U227">
+        <v>2.16</v>
+      </c>
+      <c r="V227">
+        <v>2.63</v>
+      </c>
+      <c r="W227">
+        <v>1.38</v>
+      </c>
+      <c r="X227">
+        <v>2.75</v>
+      </c>
+      <c r="Y227">
+        <v>2.75</v>
+      </c>
+      <c r="Z227">
+        <v>1.39</v>
+      </c>
+      <c r="AA227">
+        <v>7</v>
+      </c>
+      <c r="AB227">
+        <v>1.08</v>
+      </c>
+      <c r="AC227">
+        <v>3.15</v>
+      </c>
+      <c r="AD227">
+        <v>3.3</v>
+      </c>
+      <c r="AE227">
+        <v>2.09</v>
+      </c>
+      <c r="AF227">
+        <v>1.05</v>
+      </c>
+      <c r="AG227">
+        <v>9.25</v>
+      </c>
+      <c r="AH227">
+        <v>1.27</v>
+      </c>
+      <c r="AI227">
+        <v>3.79</v>
+      </c>
+      <c r="AJ227">
+        <v>1.95</v>
+      </c>
+      <c r="AK227">
+        <v>1.87</v>
+      </c>
+      <c r="AL227">
+        <v>1.71</v>
+      </c>
+      <c r="AM227">
+        <v>2.05</v>
+      </c>
+      <c r="AN227">
+        <v>1.73</v>
+      </c>
+      <c r="AO227">
+        <v>1.28</v>
+      </c>
+      <c r="AP227">
+        <v>1.26</v>
+      </c>
+      <c r="AQ227">
+        <v>0.86</v>
+      </c>
+      <c r="AR227">
+        <v>1</v>
+      </c>
+      <c r="AS227">
+        <v>1</v>
+      </c>
+      <c r="AT227">
+        <v>0.93</v>
+      </c>
+      <c r="AU227">
+        <v>1.4</v>
+      </c>
+      <c r="AV227">
+        <v>1.35</v>
+      </c>
+      <c r="AW227">
+        <v>2.75</v>
+      </c>
+      <c r="AX227">
+        <v>2.26</v>
+      </c>
+      <c r="AY227">
+        <v>7</v>
+      </c>
+      <c r="AZ227">
+        <v>1.99</v>
+      </c>
+      <c r="BA227">
+        <v>1.27</v>
+      </c>
+      <c r="BB227">
+        <v>1.52</v>
+      </c>
+      <c r="BC227">
+        <v>1.93</v>
+      </c>
+      <c r="BD227">
+        <v>2.5</v>
+      </c>
+      <c r="BE227">
+        <v>3.34</v>
+      </c>
+      <c r="BF227">
+        <v>3</v>
+      </c>
+      <c r="BG227">
+        <v>3</v>
+      </c>
+      <c r="BH227">
+        <v>13</v>
+      </c>
+      <c r="BI227">
+        <v>7</v>
+      </c>
+      <c r="BJ227">
+        <v>16</v>
+      </c>
+      <c r="BK227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>1565011</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44864.625</v>
+      </c>
+      <c r="F228">
+        <v>29</v>
+      </c>
+      <c r="G228" t="s">
+        <v>74</v>
+      </c>
+      <c r="H228" t="s">
+        <v>68</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>3</v>
+      </c>
+      <c r="O228" t="s">
+        <v>234</v>
+      </c>
+      <c r="P228" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q228">
+        <v>6</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>8</v>
+      </c>
+      <c r="T228">
+        <v>2.28</v>
+      </c>
+      <c r="U228">
+        <v>2.18</v>
+      </c>
+      <c r="V228">
+        <v>5</v>
+      </c>
+      <c r="W228">
+        <v>1.37</v>
+      </c>
+      <c r="X228">
+        <v>2.85</v>
+      </c>
+      <c r="Y228">
+        <v>3.05</v>
+      </c>
+      <c r="Z228">
+        <v>1.33</v>
+      </c>
+      <c r="AA228">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB228">
+        <v>1.06</v>
+      </c>
+      <c r="AC228">
+        <v>1.72</v>
+      </c>
+      <c r="AD228">
+        <v>3.5</v>
+      </c>
+      <c r="AE228">
+        <v>4.3</v>
+      </c>
+      <c r="AF228">
+        <v>1.05</v>
+      </c>
+      <c r="AG228">
+        <v>8</v>
+      </c>
+      <c r="AH228">
+        <v>1.36</v>
+      </c>
+      <c r="AI228">
+        <v>3.17</v>
+      </c>
+      <c r="AJ228">
+        <v>2.06</v>
+      </c>
+      <c r="AK228">
+        <v>1.76</v>
+      </c>
+      <c r="AL228">
+        <v>1.98</v>
+      </c>
+      <c r="AM228">
+        <v>1.76</v>
+      </c>
+      <c r="AN228">
+        <v>1.15</v>
+      </c>
+      <c r="AO228">
+        <v>1.24</v>
+      </c>
+      <c r="AP228">
+        <v>2.08</v>
+      </c>
+      <c r="AQ228">
+        <v>1.43</v>
+      </c>
+      <c r="AR228">
+        <v>0.57</v>
+      </c>
+      <c r="AS228">
+        <v>1.53</v>
+      </c>
+      <c r="AT228">
+        <v>0.53</v>
+      </c>
+      <c r="AU228">
+        <v>1.83</v>
+      </c>
+      <c r="AV228">
+        <v>1.29</v>
+      </c>
+      <c r="AW228">
+        <v>3.12</v>
+      </c>
+      <c r="AX228">
+        <v>1.67</v>
+      </c>
+      <c r="AY228">
+        <v>7.7</v>
+      </c>
+      <c r="AZ228">
+        <v>2.84</v>
+      </c>
+      <c r="BA228">
+        <v>1.4</v>
+      </c>
+      <c r="BB228">
+        <v>1.73</v>
+      </c>
+      <c r="BC228">
+        <v>2.19</v>
+      </c>
+      <c r="BD228">
+        <v>2.91</v>
+      </c>
+      <c r="BE228">
+        <v>4.4</v>
+      </c>
+      <c r="BF228">
+        <v>6</v>
+      </c>
+      <c r="BG228">
+        <v>4</v>
+      </c>
+      <c r="BH228">
+        <v>13</v>
+      </c>
+      <c r="BI228">
+        <v>8</v>
+      </c>
+      <c r="BJ228">
+        <v>19</v>
+      </c>
+      <c r="BK228">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1565012</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44864.625</v>
+      </c>
+      <c r="F229">
+        <v>29</v>
+      </c>
+      <c r="G229" t="s">
+        <v>66</v>
+      </c>
+      <c r="H229" t="s">
+        <v>67</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>3</v>
+      </c>
+      <c r="N229">
+        <v>4</v>
+      </c>
+      <c r="O229" t="s">
+        <v>128</v>
+      </c>
+      <c r="P229" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q229">
+        <v>1</v>
+      </c>
+      <c r="R229">
+        <v>4</v>
+      </c>
+      <c r="S229">
+        <v>5</v>
+      </c>
+      <c r="T229">
+        <v>2.65</v>
+      </c>
+      <c r="U229">
+        <v>2.12</v>
+      </c>
+      <c r="V229">
+        <v>4</v>
+      </c>
+      <c r="W229">
+        <v>1.4</v>
+      </c>
+      <c r="X229">
+        <v>2.7</v>
+      </c>
+      <c r="Y229">
+        <v>2.85</v>
+      </c>
+      <c r="Z229">
+        <v>1.36</v>
+      </c>
+      <c r="AA229">
+        <v>7.5</v>
+      </c>
+      <c r="AB229">
+        <v>1.07</v>
+      </c>
+      <c r="AC229">
+        <v>2.05</v>
+      </c>
+      <c r="AD229">
+        <v>3.4</v>
+      </c>
+      <c r="AE229">
+        <v>3.15</v>
+      </c>
+      <c r="AF229">
+        <v>1.06</v>
+      </c>
+      <c r="AG229">
+        <v>8.75</v>
+      </c>
+      <c r="AH229">
+        <v>1.35</v>
+      </c>
+      <c r="AI229">
+        <v>3.18</v>
+      </c>
+      <c r="AJ229">
+        <v>1.94</v>
+      </c>
+      <c r="AK229">
+        <v>1.88</v>
+      </c>
+      <c r="AL229">
+        <v>1.82</v>
+      </c>
+      <c r="AM229">
+        <v>1.91</v>
+      </c>
+      <c r="AN229">
+        <v>1.26</v>
+      </c>
+      <c r="AO229">
+        <v>1.28</v>
+      </c>
+      <c r="AP229">
+        <v>1.73</v>
+      </c>
+      <c r="AQ229">
+        <v>1.29</v>
+      </c>
+      <c r="AR229">
+        <v>0.43</v>
+      </c>
+      <c r="AS229">
+        <v>1.2</v>
+      </c>
+      <c r="AT229">
+        <v>0.6</v>
+      </c>
+      <c r="AU229">
+        <v>1.69</v>
+      </c>
+      <c r="AV229">
+        <v>1.47</v>
+      </c>
+      <c r="AW229">
+        <v>3.16</v>
+      </c>
+      <c r="AX229">
+        <v>1.71</v>
+      </c>
+      <c r="AY229">
+        <v>7.2</v>
+      </c>
+      <c r="AZ229">
+        <v>2.8</v>
+      </c>
+      <c r="BA229">
+        <v>1.29</v>
+      </c>
+      <c r="BB229">
+        <v>1.56</v>
+      </c>
+      <c r="BC229">
+        <v>1.98</v>
+      </c>
+      <c r="BD229">
+        <v>2.59</v>
+      </c>
+      <c r="BE229">
+        <v>3.48</v>
+      </c>
+      <c r="BF229">
+        <v>4</v>
+      </c>
+      <c r="BG229">
+        <v>7</v>
+      </c>
+      <c r="BH229">
+        <v>3</v>
+      </c>
+      <c r="BI229">
+        <v>5</v>
+      </c>
+      <c r="BJ229">
+        <v>7</v>
+      </c>
+      <c r="BK229">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>1565016</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44864.72916666666</v>
+      </c>
+      <c r="F230">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>70</v>
+      </c>
+      <c r="H230" t="s">
+        <v>65</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>235</v>
+      </c>
+      <c r="P230" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q230">
+        <v>3</v>
+      </c>
+      <c r="R230">
+        <v>10</v>
+      </c>
+      <c r="S230">
+        <v>13</v>
+      </c>
+      <c r="T230">
+        <v>1.92</v>
+      </c>
+      <c r="U230">
+        <v>2.32</v>
+      </c>
+      <c r="V230">
+        <v>6.75</v>
+      </c>
+      <c r="W230">
+        <v>1.41</v>
+      </c>
+      <c r="X230">
+        <v>2.7</v>
+      </c>
+      <c r="Y230">
+        <v>2.9</v>
+      </c>
+      <c r="Z230">
+        <v>1.36</v>
+      </c>
+      <c r="AA230">
+        <v>7.5</v>
+      </c>
+      <c r="AB230">
+        <v>1.07</v>
+      </c>
+      <c r="AC230">
+        <v>1.4</v>
+      </c>
+      <c r="AD230">
+        <v>4.2</v>
+      </c>
+      <c r="AE230">
+        <v>6.8</v>
+      </c>
+      <c r="AF230">
+        <v>1.06</v>
+      </c>
+      <c r="AG230">
+        <v>9</v>
+      </c>
+      <c r="AH230">
+        <v>1.35</v>
+      </c>
+      <c r="AI230">
+        <v>3.22</v>
+      </c>
+      <c r="AJ230">
+        <v>2.02</v>
+      </c>
+      <c r="AK230">
+        <v>1.8</v>
+      </c>
+      <c r="AL230">
+        <v>2.28</v>
+      </c>
+      <c r="AM230">
+        <v>1.58</v>
+      </c>
+      <c r="AN230">
+        <v>1.06</v>
+      </c>
+      <c r="AO230">
+        <v>1.18</v>
+      </c>
+      <c r="AP230">
+        <v>2.8</v>
+      </c>
+      <c r="AQ230">
+        <v>2.43</v>
+      </c>
+      <c r="AR230">
+        <v>1</v>
+      </c>
+      <c r="AS230">
+        <v>2.47</v>
+      </c>
+      <c r="AT230">
+        <v>0.93</v>
+      </c>
+      <c r="AU230">
+        <v>2.08</v>
+      </c>
+      <c r="AV230">
+        <v>1.51</v>
+      </c>
+      <c r="AW230">
+        <v>3.59</v>
+      </c>
+      <c r="AX230">
+        <v>1.2</v>
+      </c>
+      <c r="AY230">
+        <v>10.5</v>
+      </c>
+      <c r="AZ230">
+        <v>6.55</v>
+      </c>
+      <c r="BA230">
+        <v>1.35</v>
+      </c>
+      <c r="BB230">
+        <v>1.66</v>
+      </c>
+      <c r="BC230">
+        <v>2.12</v>
+      </c>
+      <c r="BD230">
+        <v>2.81</v>
+      </c>
+      <c r="BE230">
+        <v>3.74</v>
+      </c>
+      <c r="BF230">
+        <v>4</v>
+      </c>
+      <c r="BG230">
+        <v>7</v>
+      </c>
+      <c r="BH230">
+        <v>7</v>
+      </c>
+      <c r="BI230">
+        <v>6</v>
+      </c>
+      <c r="BJ230">
+        <v>11</v>
+      </c>
+      <c r="BK230">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>1565017</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44865.72916666666</v>
+      </c>
+      <c r="F231">
+        <v>29</v>
+      </c>
+      <c r="G231" t="s">
+        <v>72</v>
+      </c>
+      <c r="H231" t="s">
+        <v>79</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>236</v>
+      </c>
+      <c r="P231" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q231">
+        <v>4</v>
+      </c>
+      <c r="R231">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>5</v>
+      </c>
+      <c r="T231">
+        <v>3.2</v>
+      </c>
+      <c r="U231">
+        <v>2.05</v>
+      </c>
+      <c r="V231">
+        <v>3.6</v>
+      </c>
+      <c r="W231">
+        <v>1.42</v>
+      </c>
+      <c r="X231">
+        <v>2.65</v>
+      </c>
+      <c r="Y231">
+        <v>2.95</v>
+      </c>
+      <c r="Z231">
+        <v>1.35</v>
+      </c>
+      <c r="AA231">
+        <v>7.85</v>
+      </c>
+      <c r="AB231">
+        <v>1.05</v>
+      </c>
+      <c r="AC231">
+        <v>2.21</v>
+      </c>
+      <c r="AD231">
+        <v>3.35</v>
+      </c>
+      <c r="AE231">
+        <v>2.87</v>
+      </c>
+      <c r="AF231">
+        <v>1.06</v>
+      </c>
+      <c r="AG231">
+        <v>9.5</v>
+      </c>
+      <c r="AH231">
+        <v>1.35</v>
+      </c>
+      <c r="AI231">
+        <v>3.2</v>
+      </c>
+      <c r="AJ231">
+        <v>2.02</v>
+      </c>
+      <c r="AK231">
+        <v>1.8</v>
+      </c>
+      <c r="AL231">
+        <v>1.8</v>
+      </c>
+      <c r="AM231">
+        <v>1.95</v>
+      </c>
+      <c r="AN231">
+        <v>1.42</v>
+      </c>
+      <c r="AO231">
+        <v>1.3</v>
+      </c>
+      <c r="AP231">
+        <v>1.55</v>
+      </c>
+      <c r="AQ231">
+        <v>2.21</v>
+      </c>
+      <c r="AR231">
+        <v>1.29</v>
+      </c>
+      <c r="AS231">
+        <v>2.07</v>
+      </c>
+      <c r="AT231">
+        <v>1.4</v>
+      </c>
+      <c r="AU231">
+        <v>1.82</v>
+      </c>
+      <c r="AV231">
+        <v>1.61</v>
+      </c>
+      <c r="AW231">
+        <v>3.43</v>
+      </c>
+      <c r="AX231">
+        <v>1.64</v>
+      </c>
+      <c r="AY231">
+        <v>7.8</v>
+      </c>
+      <c r="AZ231">
+        <v>2.86</v>
+      </c>
+      <c r="BA231">
+        <v>1.34</v>
+      </c>
+      <c r="BB231">
+        <v>1.65</v>
+      </c>
+      <c r="BC231">
+        <v>2.1</v>
+      </c>
+      <c r="BD231">
+        <v>2.77</v>
+      </c>
+      <c r="BE231">
+        <v>3.74</v>
+      </c>
+      <c r="BF231">
+        <v>7</v>
+      </c>
+      <c r="BG231">
+        <v>9</v>
+      </c>
+      <c r="BH231">
+        <v>4</v>
+      </c>
+      <c r="BI231">
+        <v>5</v>
+      </c>
+      <c r="BJ231">
+        <v>11</v>
+      </c>
+      <c r="BK231">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1565014</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44865.83333333334</v>
+      </c>
+      <c r="F232">
+        <v>29</v>
+      </c>
+      <c r="G232" t="s">
+        <v>78</v>
+      </c>
+      <c r="H232" t="s">
+        <v>71</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232" t="s">
+        <v>84</v>
+      </c>
+      <c r="P232" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q232">
+        <v>1</v>
+      </c>
+      <c r="R232">
+        <v>7</v>
+      </c>
+      <c r="S232">
+        <v>8</v>
+      </c>
+      <c r="T232">
+        <v>2.37</v>
+      </c>
+      <c r="U232">
+        <v>2.1</v>
+      </c>
+      <c r="V232">
+        <v>4.4</v>
+      </c>
+      <c r="W232">
+        <v>1.4</v>
+      </c>
+      <c r="X232">
+        <v>2.7</v>
+      </c>
+      <c r="Y232">
+        <v>2.8</v>
+      </c>
+      <c r="Z232">
+        <v>1.37</v>
+      </c>
+      <c r="AA232">
+        <v>7.25</v>
+      </c>
+      <c r="AB232">
+        <v>1.08</v>
+      </c>
+      <c r="AC232">
+        <v>2.02</v>
+      </c>
+      <c r="AD232">
+        <v>3.45</v>
+      </c>
+      <c r="AE232">
+        <v>3.2</v>
+      </c>
+      <c r="AF232">
+        <v>1.06</v>
+      </c>
+      <c r="AG232">
+        <v>8</v>
+      </c>
+      <c r="AH232">
+        <v>1.3</v>
+      </c>
+      <c r="AI232">
+        <v>3.4</v>
+      </c>
+      <c r="AJ232">
+        <v>2.03</v>
+      </c>
+      <c r="AK232">
+        <v>1.85</v>
+      </c>
+      <c r="AL232">
+        <v>1.83</v>
+      </c>
+      <c r="AM232">
+        <v>1.85</v>
+      </c>
+      <c r="AN232">
+        <v>1.22</v>
+      </c>
+      <c r="AO232">
+        <v>1.27</v>
+      </c>
+      <c r="AP232">
+        <v>1.95</v>
+      </c>
+      <c r="AQ232">
+        <v>1.93</v>
+      </c>
+      <c r="AR232">
+        <v>1.57</v>
+      </c>
+      <c r="AS232">
+        <v>1.87</v>
+      </c>
+      <c r="AT232">
+        <v>1.53</v>
+      </c>
+      <c r="AU232">
+        <v>1.74</v>
+      </c>
+      <c r="AV232">
+        <v>1.54</v>
+      </c>
+      <c r="AW232">
+        <v>3.28</v>
+      </c>
+      <c r="AX232">
+        <v>1.51</v>
+      </c>
+      <c r="AY232">
+        <v>6</v>
+      </c>
+      <c r="AZ232">
+        <v>2.85</v>
+      </c>
+      <c r="BA232">
+        <v>1.31</v>
+      </c>
+      <c r="BB232">
+        <v>1.59</v>
+      </c>
+      <c r="BC232">
+        <v>2.02</v>
+      </c>
+      <c r="BD232">
+        <v>2.62</v>
+      </c>
+      <c r="BE232">
+        <v>3.56</v>
+      </c>
+      <c r="BF232">
+        <v>4</v>
+      </c>
+      <c r="BG232">
+        <v>6</v>
+      </c>
+      <c r="BH232">
+        <v>8</v>
+      </c>
+      <c r="BI232">
+        <v>10</v>
+      </c>
+      <c r="BJ232">
+        <v>12</v>
+      </c>
+      <c r="BK232">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="341">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,21 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['11', '40', '56', '83', '90+1']</t>
+  </si>
+  <si>
+    <t>['41', '45+2']</t>
+  </si>
+  <si>
+    <t>['16', '20', '43']</t>
+  </si>
+  <si>
+    <t>['12', '40', '60']</t>
+  </si>
+  <si>
+    <t>['9', '25']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -1000,6 +1015,9 @@
     <t>['45+1', '90']</t>
   </si>
   <si>
+    <t>['-1', '-1', '-1']</t>
+  </si>
+  <si>
     <t>['23', '76']</t>
   </si>
   <si>
@@ -1010,6 +1028,15 @@
   </si>
   <si>
     <t>['34', '60']</t>
+  </si>
+  <si>
+    <t>['11', '45+3', '48', '79']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['45+2', '75']</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK232"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1806,7 +1833,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1896,7 +1923,7 @@
         <v>1.2</v>
       </c>
       <c r="AT3">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1997,7 +2024,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2084,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2188,7 +2215,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2275,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT5">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2379,7 +2406,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2466,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT6">
         <v>0.73</v>
@@ -2660,7 +2687,7 @@
         <v>2.47</v>
       </c>
       <c r="AT7">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2761,7 +2788,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2848,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT8">
         <v>1.4</v>
@@ -3042,7 +3069,7 @@
         <v>2.07</v>
       </c>
       <c r="AT9">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3230,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT10">
         <v>0.93</v>
@@ -3525,7 +3552,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3716,7 +3743,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3803,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT13">
         <v>0.53</v>
@@ -3997,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4188,7 +4215,7 @@
         <v>1.87</v>
       </c>
       <c r="AT15">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4376,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT16">
         <v>0.93</v>
@@ -4480,7 +4507,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4570,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4758,10 +4785,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT18">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU18">
         <v>1.81</v>
@@ -4862,7 +4889,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -4952,7 +4979,7 @@
         <v>1.2</v>
       </c>
       <c r="AT19">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU19">
         <v>1.59</v>
@@ -5244,7 +5271,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5331,10 +5358,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT21">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU21">
         <v>1.31</v>
@@ -5435,7 +5462,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -5522,10 +5549,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT22">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU22">
         <v>1.6</v>
@@ -5626,7 +5653,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5713,10 +5740,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>2.42</v>
@@ -5907,7 +5934,7 @@
         <v>1.87</v>
       </c>
       <c r="AT24">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU24">
         <v>2.1</v>
@@ -6008,7 +6035,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6095,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT25">
         <v>0.73</v>
@@ -6199,7 +6226,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6286,10 +6313,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT26">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU26">
         <v>2.17</v>
@@ -6390,7 +6417,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6581,7 +6608,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6772,7 +6799,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6859,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT29">
         <v>0.53</v>
@@ -7053,7 +7080,7 @@
         <v>1.53</v>
       </c>
       <c r="AT30">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU30">
         <v>1.31</v>
@@ -7154,7 +7181,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -7241,10 +7268,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU31">
         <v>1.81</v>
@@ -7345,7 +7372,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7435,7 +7462,7 @@
         <v>2.07</v>
       </c>
       <c r="AT32">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU32">
         <v>2.71</v>
@@ -7623,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT33">
         <v>0.93</v>
@@ -7814,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT34">
         <v>0.93</v>
@@ -7918,7 +7945,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8005,10 +8032,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT35">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>2.54</v>
@@ -8196,7 +8223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT36">
         <v>0.53</v>
@@ -8390,7 +8417,7 @@
         <v>1.2</v>
       </c>
       <c r="AT37">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU37">
         <v>2.1</v>
@@ -8581,7 +8608,7 @@
         <v>1.53</v>
       </c>
       <c r="AT38">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU38">
         <v>2.84</v>
@@ -8682,7 +8709,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8873,7 +8900,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8960,7 +8987,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>1.53</v>
@@ -9064,7 +9091,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9154,7 +9181,7 @@
         <v>2</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU41">
         <v>2.84</v>
@@ -9255,7 +9282,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -9345,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="AT42">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>1.2</v>
@@ -9446,7 +9473,7 @@
         <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -9533,7 +9560,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT43">
         <v>1.4</v>
@@ -9637,7 +9664,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9727,7 +9754,7 @@
         <v>1.87</v>
       </c>
       <c r="AT44">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU44">
         <v>2.15</v>
@@ -9915,10 +9942,10 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT45">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU45">
         <v>1.74</v>
@@ -10210,7 +10237,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10297,10 +10324,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT47">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU47">
         <v>1.53</v>
@@ -10401,7 +10428,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10488,10 +10515,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT48">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU48">
         <v>1.56</v>
@@ -10592,7 +10619,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10679,10 +10706,10 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT49">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU49">
         <v>1.74</v>
@@ -10870,10 +10897,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -11165,7 +11192,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q52">
         <v>13</v>
@@ -11255,7 +11282,7 @@
         <v>1.53</v>
       </c>
       <c r="AT52">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU52">
         <v>1.36</v>
@@ -11356,7 +11383,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11443,10 +11470,10 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU53">
         <v>1.88</v>
@@ -11825,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT55">
         <v>0.93</v>
@@ -12207,10 +12234,10 @@
         <v>1.5</v>
       </c>
       <c r="AS57">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT57">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU57">
         <v>1.66</v>
@@ -12502,7 +12529,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12592,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="AT59">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU59">
         <v>1.36</v>
@@ -12693,7 +12720,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12780,7 +12807,7 @@
         <v>0.33</v>
       </c>
       <c r="AS60">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>0.6</v>
@@ -12884,7 +12911,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12971,7 +12998,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT61">
         <v>0.53</v>
@@ -13075,7 +13102,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13356,7 +13383,7 @@
         <v>1.53</v>
       </c>
       <c r="AT63">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13544,10 +13571,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT64">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU64">
         <v>1.59</v>
@@ -13738,7 +13765,7 @@
         <v>2.07</v>
       </c>
       <c r="AT65">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU65">
         <v>2.04</v>
@@ -13839,7 +13866,7 @@
         <v>84</v>
       </c>
       <c r="P66" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13929,7 +13956,7 @@
         <v>1.53</v>
       </c>
       <c r="AT66">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU66">
         <v>2.2</v>
@@ -14117,7 +14144,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT67">
         <v>0.73</v>
@@ -14221,7 +14248,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14311,7 +14338,7 @@
         <v>1.87</v>
       </c>
       <c r="AT68">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU68">
         <v>1.81</v>
@@ -14412,7 +14439,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14603,7 +14630,7 @@
         <v>104</v>
       </c>
       <c r="P70" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14690,7 +14717,7 @@
         <v>1.75</v>
       </c>
       <c r="AS70">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>1.4</v>
@@ -14884,7 +14911,7 @@
         <v>1.2</v>
       </c>
       <c r="AT71">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU71">
         <v>1.85</v>
@@ -15072,10 +15099,10 @@
         <v>1.25</v>
       </c>
       <c r="AS72">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT72">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU72">
         <v>1.84</v>
@@ -15176,7 +15203,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15266,7 +15293,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU73">
         <v>1.28</v>
@@ -15367,7 +15394,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15454,7 +15481,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT74">
         <v>0.6</v>
@@ -15645,10 +15672,10 @@
         <v>0.75</v>
       </c>
       <c r="AS75">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT75">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU75">
         <v>1.61</v>
@@ -16030,7 +16057,7 @@
         <v>1.53</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU77">
         <v>1.66</v>
@@ -16131,7 +16158,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16221,7 +16248,7 @@
         <v>2.47</v>
       </c>
       <c r="AT78">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>2.39</v>
@@ -16409,10 +16436,10 @@
         <v>1.6</v>
       </c>
       <c r="AS79">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT79">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU79">
         <v>2.12</v>
@@ -16600,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT80">
         <v>0.93</v>
@@ -16794,7 +16821,7 @@
         <v>1.53</v>
       </c>
       <c r="AT81">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU81">
         <v>1.85</v>
@@ -16982,10 +17009,10 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT82">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU82">
         <v>1.48</v>
@@ -17086,7 +17113,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17176,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="AT83">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU83">
         <v>1.23</v>
@@ -17277,7 +17304,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17367,7 +17394,7 @@
         <v>1.87</v>
       </c>
       <c r="AT84">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU84">
         <v>1.74</v>
@@ -17555,7 +17582,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>1.4</v>
@@ -17659,7 +17686,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17746,7 +17773,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT86">
         <v>0.93</v>
@@ -17850,7 +17877,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17940,7 +17967,7 @@
         <v>1.2</v>
       </c>
       <c r="AT87">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>1.72</v>
@@ -18128,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT88">
         <v>0.73</v>
@@ -18319,7 +18346,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT89">
         <v>0.93</v>
@@ -18423,7 +18450,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18510,10 +18537,10 @@
         <v>1.8</v>
       </c>
       <c r="AS90">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT90">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU90">
         <v>1.54</v>
@@ -18701,10 +18728,10 @@
         <v>1.4</v>
       </c>
       <c r="AS91">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT91">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU91">
         <v>1.66</v>
@@ -18892,7 +18919,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT92">
         <v>0.53</v>
@@ -19083,10 +19110,10 @@
         <v>0.6</v>
       </c>
       <c r="AS93">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU93">
         <v>2.18</v>
@@ -19187,7 +19214,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19274,10 +19301,10 @@
         <v>0.83</v>
       </c>
       <c r="AS94">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT94">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU94">
         <v>1.66</v>
@@ -19468,7 +19495,7 @@
         <v>2</v>
       </c>
       <c r="AT95">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU95">
         <v>2.37</v>
@@ -19569,7 +19596,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19659,7 +19686,7 @@
         <v>2.07</v>
       </c>
       <c r="AT96">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU96">
         <v>1.89</v>
@@ -19847,7 +19874,7 @@
         <v>1.2</v>
       </c>
       <c r="AS97">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT97">
         <v>1.53</v>
@@ -20423,7 +20450,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU100">
         <v>1.31</v>
@@ -21097,7 +21124,7 @@
         <v>136</v>
       </c>
       <c r="P104" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21288,7 +21315,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21479,7 +21506,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21566,10 +21593,10 @@
         <v>1.67</v>
       </c>
       <c r="AS106">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT106">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU106">
         <v>1.68</v>
@@ -21670,7 +21697,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21757,10 +21784,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU107">
         <v>1.67</v>
@@ -21861,7 +21888,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21948,10 +21975,10 @@
         <v>1.29</v>
       </c>
       <c r="AS108">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT108">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU108">
         <v>1.58</v>
@@ -22052,7 +22079,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22139,10 +22166,10 @@
         <v>1.14</v>
       </c>
       <c r="AS109">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT109">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU109">
         <v>1.73</v>
@@ -22330,10 +22357,10 @@
         <v>1.17</v>
       </c>
       <c r="AS110">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT110">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU110">
         <v>1.82</v>
@@ -22521,10 +22548,10 @@
         <v>1.67</v>
       </c>
       <c r="AS111">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT111">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.66</v>
@@ -22712,10 +22739,10 @@
         <v>1.57</v>
       </c>
       <c r="AS112">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT112">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU112">
         <v>1.54</v>
@@ -22903,10 +22930,10 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT113">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU113">
         <v>2.17</v>
@@ -23198,7 +23225,7 @@
         <v>164</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23580,7 +23607,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23670,7 +23697,7 @@
         <v>1.53</v>
       </c>
       <c r="AT117">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU117">
         <v>1.64</v>
@@ -23962,7 +23989,7 @@
         <v>166</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24535,7 +24562,7 @@
         <v>139</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24622,7 +24649,7 @@
         <v>0.75</v>
       </c>
       <c r="AS122">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT122">
         <v>1.53</v>
@@ -24726,7 +24753,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24816,7 +24843,7 @@
         <v>1.53</v>
       </c>
       <c r="AT123">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU123">
         <v>1.67</v>
@@ -25004,10 +25031,10 @@
         <v>1.86</v>
       </c>
       <c r="AS124">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT124">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU124">
         <v>1.64</v>
@@ -25195,7 +25222,7 @@
         <v>0.57</v>
       </c>
       <c r="AS125">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT125">
         <v>0.93</v>
@@ -25299,7 +25326,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25389,7 +25416,7 @@
         <v>1.53</v>
       </c>
       <c r="AT126">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU126">
         <v>1.56</v>
@@ -25872,7 +25899,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26063,7 +26090,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26150,10 +26177,10 @@
         <v>0.75</v>
       </c>
       <c r="AS130">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT130">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU130">
         <v>1.47</v>
@@ -26344,7 +26371,7 @@
         <v>2.07</v>
       </c>
       <c r="AT131">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.71</v>
@@ -26532,10 +26559,10 @@
         <v>1</v>
       </c>
       <c r="AS132">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT132">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU132">
         <v>1.69</v>
@@ -26723,10 +26750,10 @@
         <v>1.25</v>
       </c>
       <c r="AS133">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU133">
         <v>1.66</v>
@@ -26827,7 +26854,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26914,7 +26941,7 @@
         <v>0.38</v>
       </c>
       <c r="AS134">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT134">
         <v>0.73</v>
@@ -27108,7 +27135,7 @@
         <v>2.47</v>
       </c>
       <c r="AT135">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU135">
         <v>2.16</v>
@@ -27209,7 +27236,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -27296,7 +27323,7 @@
         <v>1.5</v>
       </c>
       <c r="AS136">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT136">
         <v>1.4</v>
@@ -27400,7 +27427,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27487,7 +27514,7 @@
         <v>0.25</v>
       </c>
       <c r="AS137">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT137">
         <v>0.6</v>
@@ -27591,7 +27618,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -27678,10 +27705,10 @@
         <v>1.44</v>
       </c>
       <c r="AS138">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT138">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU138">
         <v>1.83</v>
@@ -27782,7 +27809,7 @@
         <v>181</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -28063,7 +28090,7 @@
         <v>1.53</v>
       </c>
       <c r="AT140">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU140">
         <v>1.71</v>
@@ -28355,7 +28382,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -28442,7 +28469,7 @@
         <v>1.44</v>
       </c>
       <c r="AS142">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT142">
         <v>1.4</v>
@@ -28546,7 +28573,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28636,7 +28663,7 @@
         <v>2.07</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU143">
         <v>1.72</v>
@@ -28737,7 +28764,7 @@
         <v>184</v>
       </c>
       <c r="P144" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -28928,7 +28955,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29015,10 +29042,10 @@
         <v>1.25</v>
       </c>
       <c r="AS145">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT145">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU145">
         <v>2.1</v>
@@ -29119,7 +29146,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29206,7 +29233,7 @@
         <v>1</v>
       </c>
       <c r="AS146">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT146">
         <v>1.53</v>
@@ -29397,10 +29424,10 @@
         <v>1</v>
       </c>
       <c r="AS147">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT147">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU147">
         <v>1.64</v>
@@ -29591,7 +29618,7 @@
         <v>2.47</v>
       </c>
       <c r="AT148">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU148">
         <v>2.15</v>
@@ -29970,7 +29997,7 @@
         <v>0.44</v>
       </c>
       <c r="AS150">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT150">
         <v>0.73</v>
@@ -30164,7 +30191,7 @@
         <v>1.87</v>
       </c>
       <c r="AT151">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU151">
         <v>1.63</v>
@@ -30265,7 +30292,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30355,7 +30382,7 @@
         <v>1.2</v>
       </c>
       <c r="AT152">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU152">
         <v>1.63</v>
@@ -30456,7 +30483,7 @@
         <v>189</v>
       </c>
       <c r="P153" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30546,7 +30573,7 @@
         <v>1.53</v>
       </c>
       <c r="AT153">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU153">
         <v>1.71</v>
@@ -30647,7 +30674,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30734,10 +30761,10 @@
         <v>1.2</v>
       </c>
       <c r="AS154">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT154">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU154">
         <v>1.86</v>
@@ -30925,7 +30952,7 @@
         <v>0.22</v>
       </c>
       <c r="AS155">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT155">
         <v>0.6</v>
@@ -31310,7 +31337,7 @@
         <v>1.87</v>
       </c>
       <c r="AT157">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU157">
         <v>1.62</v>
@@ -31411,7 +31438,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>9</v>
@@ -31501,7 +31528,7 @@
         <v>2.07</v>
       </c>
       <c r="AT158">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU158">
         <v>1.77</v>
@@ -31602,7 +31629,7 @@
         <v>147</v>
       </c>
       <c r="P159" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31689,10 +31716,10 @@
         <v>1.6</v>
       </c>
       <c r="AS159">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT159">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU159">
         <v>1.74</v>
@@ -31793,7 +31820,7 @@
         <v>194</v>
       </c>
       <c r="P160" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -31880,7 +31907,7 @@
         <v>0.89</v>
       </c>
       <c r="AS160">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT160">
         <v>0.93</v>
@@ -32071,10 +32098,10 @@
         <v>1.44</v>
       </c>
       <c r="AS161">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT161">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU161">
         <v>1.5</v>
@@ -32175,7 +32202,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32265,7 +32292,7 @@
         <v>2</v>
       </c>
       <c r="AT162">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU162">
         <v>2.37</v>
@@ -32456,7 +32483,7 @@
         <v>1.53</v>
       </c>
       <c r="AT163">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU163">
         <v>1.66</v>
@@ -32557,7 +32584,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32644,7 +32671,7 @@
         <v>1.2</v>
       </c>
       <c r="AS164">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT164">
         <v>1.53</v>
@@ -33130,7 +33157,7 @@
         <v>199</v>
       </c>
       <c r="P167" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -33217,7 +33244,7 @@
         <v>0.2</v>
       </c>
       <c r="AS167">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT167">
         <v>0.6</v>
@@ -33321,7 +33348,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q168">
         <v>11</v>
@@ -33512,7 +33539,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33790,10 +33817,10 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT170">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU170">
         <v>1.65</v>
@@ -33981,10 +34008,10 @@
         <v>1.4</v>
       </c>
       <c r="AS171">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT171">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU171">
         <v>1.72</v>
@@ -34363,7 +34390,7 @@
         <v>0.64</v>
       </c>
       <c r="AS173">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT173">
         <v>0.53</v>
@@ -34467,7 +34494,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34557,7 +34584,7 @@
         <v>1</v>
       </c>
       <c r="AT174">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU174">
         <v>1.3</v>
@@ -34748,7 +34775,7 @@
         <v>2.47</v>
       </c>
       <c r="AT175">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU175">
         <v>2.05</v>
@@ -34849,7 +34876,7 @@
         <v>89</v>
       </c>
       <c r="P176" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -34936,10 +34963,10 @@
         <v>1.6</v>
       </c>
       <c r="AS176">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT176">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU176">
         <v>2.07</v>
@@ -35130,7 +35157,7 @@
         <v>1.53</v>
       </c>
       <c r="AT177">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU177">
         <v>1.69</v>
@@ -35231,7 +35258,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35318,10 +35345,10 @@
         <v>1.4</v>
       </c>
       <c r="AS178">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT178">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU178">
         <v>1.66</v>
@@ -35422,7 +35449,7 @@
         <v>84</v>
       </c>
       <c r="P179" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35509,10 +35536,10 @@
         <v>0.44</v>
       </c>
       <c r="AS179">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT179">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU179">
         <v>1.72</v>
@@ -35700,7 +35727,7 @@
         <v>0.82</v>
       </c>
       <c r="AS180">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT180">
         <v>0.93</v>
@@ -35891,7 +35918,7 @@
         <v>1.45</v>
       </c>
       <c r="AS181">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT181">
         <v>1.4</v>
@@ -36085,7 +36112,7 @@
         <v>2</v>
       </c>
       <c r="AT182">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU182">
         <v>2.3</v>
@@ -36186,7 +36213,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36273,10 +36300,10 @@
         <v>1.73</v>
       </c>
       <c r="AS183">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT183">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU183">
         <v>1.78</v>
@@ -36377,7 +36404,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>1</v>
@@ -36655,7 +36682,7 @@
         <v>0.18</v>
       </c>
       <c r="AS185">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT185">
         <v>0.6</v>
@@ -36759,7 +36786,7 @@
         <v>210</v>
       </c>
       <c r="P186" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q186">
         <v>9</v>
@@ -36846,10 +36873,10 @@
         <v>0.91</v>
       </c>
       <c r="AS186">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT186">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU186">
         <v>1.75</v>
@@ -37040,7 +37067,7 @@
         <v>2.47</v>
       </c>
       <c r="AT187">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU187">
         <v>2.01</v>
@@ -37419,7 +37446,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT189">
         <v>0.53</v>
@@ -37523,7 +37550,7 @@
         <v>213</v>
       </c>
       <c r="P190" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37613,7 +37640,7 @@
         <v>1.53</v>
       </c>
       <c r="AT190">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU190">
         <v>1.86</v>
@@ -37714,7 +37741,7 @@
         <v>84</v>
       </c>
       <c r="P191" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -37804,7 +37831,7 @@
         <v>1</v>
       </c>
       <c r="AT191">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU191">
         <v>1.35</v>
@@ -37992,10 +38019,10 @@
         <v>1.08</v>
       </c>
       <c r="AS192">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT192">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU192">
         <v>2.06</v>
@@ -38183,7 +38210,7 @@
         <v>1.33</v>
       </c>
       <c r="AS193">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT193">
         <v>1.53</v>
@@ -38287,7 +38314,7 @@
         <v>215</v>
       </c>
       <c r="P194" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38374,7 +38401,7 @@
         <v>0.83</v>
       </c>
       <c r="AS194">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT194">
         <v>0.93</v>
@@ -38478,7 +38505,7 @@
         <v>84</v>
       </c>
       <c r="P195" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q195">
         <v>10</v>
@@ -38568,7 +38595,7 @@
         <v>1.2</v>
       </c>
       <c r="AT195">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU195">
         <v>1.59</v>
@@ -38669,7 +38696,7 @@
         <v>84</v>
       </c>
       <c r="P196" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -38759,7 +38786,7 @@
         <v>2</v>
       </c>
       <c r="AT196">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU196">
         <v>2.24</v>
@@ -38860,7 +38887,7 @@
         <v>216</v>
       </c>
       <c r="P197" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39141,7 +39168,7 @@
         <v>1.87</v>
       </c>
       <c r="AT198">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU198">
         <v>1.66</v>
@@ -39242,7 +39269,7 @@
         <v>218</v>
       </c>
       <c r="P199" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39329,7 +39356,7 @@
         <v>0.42</v>
       </c>
       <c r="AS199">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT199">
         <v>0.73</v>
@@ -39520,10 +39547,10 @@
         <v>1.27</v>
       </c>
       <c r="AS200">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT200">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU200">
         <v>1.67</v>
@@ -39711,7 +39738,7 @@
         <v>0.25</v>
       </c>
       <c r="AS201">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT201">
         <v>0.6</v>
@@ -40006,7 +40033,7 @@
         <v>145</v>
       </c>
       <c r="P203" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q203">
         <v>4</v>
@@ -40093,10 +40120,10 @@
         <v>1.25</v>
       </c>
       <c r="AS203">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT203">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU203">
         <v>1.67</v>
@@ -40287,7 +40314,7 @@
         <v>2.07</v>
       </c>
       <c r="AT204">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU204">
         <v>1.76</v>
@@ -40388,7 +40415,7 @@
         <v>221</v>
       </c>
       <c r="P205" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -40475,7 +40502,7 @@
         <v>1</v>
       </c>
       <c r="AS205">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT205">
         <v>0.93</v>
@@ -40669,7 +40696,7 @@
         <v>2</v>
       </c>
       <c r="AT206">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU206">
         <v>2.15</v>
@@ -40770,7 +40797,7 @@
         <v>223</v>
       </c>
       <c r="P207" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -40857,7 +40884,7 @@
         <v>1.46</v>
       </c>
       <c r="AS207">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT207">
         <v>1.53</v>
@@ -41051,7 +41078,7 @@
         <v>2.47</v>
       </c>
       <c r="AT208">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU208">
         <v>2.08</v>
@@ -41343,7 +41370,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41725,7 +41752,7 @@
         <v>136</v>
       </c>
       <c r="P212" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -41916,7 +41943,7 @@
         <v>104</v>
       </c>
       <c r="P213" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q213">
         <v>8</v>
@@ -42006,7 +42033,7 @@
         <v>2.47</v>
       </c>
       <c r="AT213">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU213">
         <v>2.06</v>
@@ -42107,7 +42134,7 @@
         <v>225</v>
       </c>
       <c r="P214" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42197,7 +42224,7 @@
         <v>1.53</v>
       </c>
       <c r="AT214">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU214">
         <v>1.81</v>
@@ -42298,7 +42325,7 @@
         <v>84</v>
       </c>
       <c r="P215" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42385,7 +42412,7 @@
         <v>0.85</v>
       </c>
       <c r="AS215">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT215">
         <v>0.93</v>
@@ -42447,7 +42474,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>1564923</v>
+        <v>1564998</v>
       </c>
       <c r="C216" t="s">
         <v>63</v>
@@ -42456,148 +42483,148 @@
         <v>64</v>
       </c>
       <c r="E216" s="2">
-        <v>44853.79166666666</v>
+        <v>44849.75</v>
       </c>
       <c r="F216">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G216" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H216" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I216">
         <v>0</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N216">
         <v>3</v>
       </c>
       <c r="O216" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="P216" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q216">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="R216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S216">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="T216">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="U216">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="V216">
-        <v>3.2</v>
+        <v>3.63</v>
       </c>
       <c r="W216">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="X216">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="Y216">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="Z216">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AA216">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB216">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC216">
-        <v>3.3</v>
+        <v>2.49</v>
       </c>
       <c r="AD216">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="AE216">
-        <v>2.15</v>
+        <v>2.92</v>
       </c>
       <c r="AF216">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG216">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AH216">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AI216">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="AJ216">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AK216">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AL216">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="AM216">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AN216">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AO216">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AP216">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AQ216">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AR216">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AS216">
         <v>1.2</v>
       </c>
       <c r="AT216">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AU216">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AV216">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AW216">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="AX216">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AY216">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AZ216">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="BA216">
         <v>1.27</v>
@@ -42615,22 +42642,22 @@
         <v>3.4</v>
       </c>
       <c r="BF216">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BG216">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BH216">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BI216">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BJ216">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BK216">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:63">
@@ -42638,7 +42665,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1565004</v>
+        <v>1564923</v>
       </c>
       <c r="C217" t="s">
         <v>63</v>
@@ -42647,22 +42674,22 @@
         <v>64</v>
       </c>
       <c r="E217" s="2">
-        <v>44855.8125</v>
+        <v>44853.79166666666</v>
       </c>
       <c r="F217">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G217" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H217" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217">
         <v>1</v>
@@ -42671,157 +42698,157 @@
         <v>1</v>
       </c>
       <c r="M217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O217" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="P217" t="s">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="Q217">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R217">
         <v>0</v>
       </c>
       <c r="S217">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T217">
-        <v>2.8</v>
+        <v>2.99</v>
       </c>
       <c r="U217">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="V217">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="W217">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="X217">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="Y217">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Z217">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AA217">
-        <v>7.25</v>
+        <v>6.5</v>
       </c>
       <c r="AB217">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC217">
-        <v>2.16</v>
+        <v>3.3</v>
       </c>
       <c r="AD217">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AE217">
-        <v>2.94</v>
+        <v>2.15</v>
       </c>
       <c r="AF217">
         <v>1.06</v>
       </c>
       <c r="AG217">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH217">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AI217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AJ217">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="AK217">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AL217">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AM217">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AN217">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO217">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AP217">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AQ217">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AR217">
         <v>0.92</v>
       </c>
       <c r="AS217">
-        <v>1.93</v>
+        <v>1.2</v>
       </c>
       <c r="AT217">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU217">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AV217">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AW217">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="AX217">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AY217">
         <v>8</v>
       </c>
       <c r="AZ217">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="BA217">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BB217">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BC217">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="BD217">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="BE217">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BF217">
         <v>7</v>
       </c>
       <c r="BG217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH217">
         <v>9</v>
       </c>
       <c r="BI217">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ217">
         <v>16</v>
       </c>
       <c r="BK217">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:63">
@@ -42829,7 +42856,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>1565009</v>
+        <v>1565004</v>
       </c>
       <c r="C218" t="s">
         <v>63</v>
@@ -42838,16 +42865,16 @@
         <v>64</v>
       </c>
       <c r="E218" s="2">
-        <v>44856.72916666666</v>
+        <v>44855.8125</v>
       </c>
       <c r="F218">
         <v>28</v>
       </c>
       <c r="G218" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H218" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -42859,160 +42886,160 @@
         <v>1</v>
       </c>
       <c r="L218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M218">
         <v>0</v>
       </c>
       <c r="N218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O218" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="P218" t="s">
         <v>84</v>
       </c>
       <c r="Q218">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R218">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S218">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T218">
-        <v>2.26</v>
+        <v>2.8</v>
       </c>
       <c r="U218">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="V218">
-        <v>5.65</v>
+        <v>3.7</v>
       </c>
       <c r="W218">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X218">
-        <v>2.78</v>
+        <v>2.65</v>
       </c>
       <c r="Y218">
+        <v>2.8</v>
+      </c>
+      <c r="Z218">
+        <v>1.37</v>
+      </c>
+      <c r="AA218">
+        <v>7.25</v>
+      </c>
+      <c r="AB218">
+        <v>1.08</v>
+      </c>
+      <c r="AC218">
+        <v>2.16</v>
+      </c>
+      <c r="AD218">
+        <v>3.35</v>
+      </c>
+      <c r="AE218">
         <v>2.94</v>
       </c>
-      <c r="Z218">
-        <v>1.38</v>
-      </c>
-      <c r="AA218">
-        <v>7.7</v>
-      </c>
-      <c r="AB218">
-        <v>1.07</v>
-      </c>
-      <c r="AC218">
-        <v>1.69</v>
-      </c>
-      <c r="AD218">
-        <v>3.5</v>
-      </c>
-      <c r="AE218">
-        <v>5.26</v>
-      </c>
       <c r="AF218">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AG218">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AH218">
+        <v>1.31</v>
+      </c>
+      <c r="AI218">
+        <v>3.2</v>
+      </c>
+      <c r="AJ218">
+        <v>1.99</v>
+      </c>
+      <c r="AK218">
+        <v>1.81</v>
+      </c>
+      <c r="AL218">
+        <v>1.75</v>
+      </c>
+      <c r="AM218">
+        <v>1.93</v>
+      </c>
+      <c r="AN218">
+        <v>1.33</v>
+      </c>
+      <c r="AO218">
         <v>1.32</v>
       </c>
-      <c r="AI218">
-        <v>3.14</v>
-      </c>
-      <c r="AJ218">
-        <v>2.02</v>
-      </c>
-      <c r="AK218">
-        <v>1.78</v>
-      </c>
-      <c r="AL218">
-        <v>1.98</v>
-      </c>
-      <c r="AM218">
-        <v>1.78</v>
-      </c>
-      <c r="AN218">
-        <v>1.16</v>
-      </c>
-      <c r="AO218">
-        <v>1.26</v>
-      </c>
       <c r="AP218">
-        <v>2.19</v>
+        <v>1.62</v>
       </c>
       <c r="AQ218">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR218">
         <v>0.92</v>
       </c>
       <c r="AS218">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT218">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU218">
-        <v>1.97</v>
+        <v>1.61</v>
       </c>
       <c r="AV218">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AW218">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="AX218">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="AY218">
         <v>8</v>
       </c>
       <c r="AZ218">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="BA218">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BB218">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BC218">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="BD218">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="BE218">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BF218">
         <v>7</v>
       </c>
       <c r="BG218">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH218">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI218">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BJ218">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK218">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:63">
@@ -43020,7 +43047,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1565006</v>
+        <v>1565009</v>
       </c>
       <c r="C219" t="s">
         <v>63</v>
@@ -43029,16 +43056,16 @@
         <v>64</v>
       </c>
       <c r="E219" s="2">
-        <v>44856.83333333334</v>
+        <v>44856.72916666666</v>
       </c>
       <c r="F219">
         <v>28</v>
       </c>
       <c r="G219" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H219" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -43050,160 +43077,160 @@
         <v>1</v>
       </c>
       <c r="L219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219">
         <v>2</v>
       </c>
       <c r="O219" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="Q219">
         <v>3</v>
       </c>
       <c r="R219">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S219">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T219">
-        <v>3.42</v>
+        <v>2.26</v>
       </c>
       <c r="U219">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="V219">
-        <v>3.1</v>
+        <v>5.65</v>
       </c>
       <c r="W219">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X219">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="Y219">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="Z219">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AA219">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AB219">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC219">
-        <v>2.71</v>
+        <v>1.69</v>
       </c>
       <c r="AD219">
-        <v>3.27</v>
+        <v>3.5</v>
       </c>
       <c r="AE219">
-        <v>2.59</v>
+        <v>5.26</v>
       </c>
       <c r="AF219">
         <v>1.02</v>
       </c>
       <c r="AG219">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AH219">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AI219">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="AJ219">
         <v>2.02</v>
       </c>
       <c r="AK219">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AL219">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="AM219">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="AN219">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="AO219">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AP219">
-        <v>1.44</v>
+        <v>2.19</v>
       </c>
       <c r="AQ219">
-        <v>1.38</v>
+        <v>2.08</v>
       </c>
       <c r="AR219">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AS219">
+        <v>2.07</v>
+      </c>
+      <c r="AT219">
+        <v>0.8</v>
+      </c>
+      <c r="AU219">
+        <v>1.97</v>
+      </c>
+      <c r="AV219">
+        <v>1.61</v>
+      </c>
+      <c r="AW219">
+        <v>3.58</v>
+      </c>
+      <c r="AX219">
+        <v>1.69</v>
+      </c>
+      <c r="AY219">
+        <v>8</v>
+      </c>
+      <c r="AZ219">
+        <v>2.65</v>
+      </c>
+      <c r="BA219">
         <v>1.36</v>
       </c>
-      <c r="AT219">
-        <v>1.36</v>
-      </c>
-      <c r="AU219">
-        <v>1.71</v>
-      </c>
-      <c r="AV219">
-        <v>1.5</v>
-      </c>
-      <c r="AW219">
-        <v>3.21</v>
-      </c>
-      <c r="AX219">
-        <v>2</v>
-      </c>
-      <c r="AY219">
-        <v>7.5</v>
-      </c>
-      <c r="AZ219">
-        <v>2.05</v>
-      </c>
-      <c r="BA219">
-        <v>1.37</v>
-      </c>
       <c r="BB219">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="BC219">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="BD219">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="BE219">
         <v>4.1</v>
       </c>
       <c r="BF219">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG219">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH219">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI219">
+        <v>11</v>
+      </c>
+      <c r="BJ219">
         <v>14</v>
       </c>
-      <c r="BJ219">
-        <v>11</v>
-      </c>
       <c r="BK219">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:63">
@@ -43211,7 +43238,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1565002</v>
+        <v>1565006</v>
       </c>
       <c r="C220" t="s">
         <v>63</v>
@@ -43220,181 +43247,181 @@
         <v>64</v>
       </c>
       <c r="E220" s="2">
-        <v>44857.625</v>
+        <v>44856.83333333334</v>
       </c>
       <c r="F220">
         <v>28</v>
       </c>
       <c r="G220" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H220" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220">
         <v>1</v>
       </c>
       <c r="L220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N220">
         <v>2</v>
       </c>
       <c r="O220" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="P220" t="s">
-        <v>329</v>
+        <v>170</v>
       </c>
       <c r="Q220">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S220">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T220">
-        <v>5.52</v>
+        <v>3.42</v>
       </c>
       <c r="U220">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="V220">
-        <v>2.27</v>
+        <v>3.1</v>
       </c>
       <c r="W220">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X220">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="Y220">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="Z220">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AA220">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB220">
         <v>1.08</v>
       </c>
       <c r="AC220">
-        <v>4.75</v>
+        <v>2.71</v>
       </c>
       <c r="AD220">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="AE220">
-        <v>1.62</v>
+        <v>2.59</v>
       </c>
       <c r="AF220">
         <v>1.02</v>
       </c>
       <c r="AG220">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH220">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AI220">
-        <v>3.65</v>
+        <v>3.26</v>
       </c>
       <c r="AJ220">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="AK220">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AL220">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="AM220">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AN220">
-        <v>2.25</v>
+        <v>1.52</v>
       </c>
       <c r="AO220">
+        <v>1.31</v>
+      </c>
+      <c r="AP220">
+        <v>1.44</v>
+      </c>
+      <c r="AQ220">
+        <v>1.38</v>
+      </c>
+      <c r="AR220">
+        <v>1.38</v>
+      </c>
+      <c r="AS220">
         <v>1.27</v>
       </c>
-      <c r="AP220">
-        <v>1.17</v>
-      </c>
-      <c r="AQ220">
-        <v>1.31</v>
-      </c>
-      <c r="AR220">
-        <v>1.69</v>
-      </c>
-      <c r="AS220">
-        <v>1.21</v>
-      </c>
       <c r="AT220">
-        <v>1.79</v>
+        <v>1.27</v>
       </c>
       <c r="AU220">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AV220">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AW220">
-        <v>3.27</v>
+        <v>3.21</v>
       </c>
       <c r="AX220">
-        <v>3.16</v>
+        <v>2</v>
       </c>
       <c r="AY220">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ220">
-        <v>1.51</v>
+        <v>2.05</v>
       </c>
       <c r="BA220">
         <v>1.37</v>
       </c>
       <c r="BB220">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="BC220">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="BD220">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="BE220">
         <v>4.1</v>
       </c>
       <c r="BF220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG220">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH220">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BI220">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BJ220">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK220">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:63">
@@ -43402,7 +43429,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1565005</v>
+        <v>1565002</v>
       </c>
       <c r="C221" t="s">
         <v>63</v>
@@ -43417,175 +43444,175 @@
         <v>28</v>
       </c>
       <c r="G221" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H221" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L221">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N221">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O221" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="P221" t="s">
-        <v>84</v>
+        <v>335</v>
       </c>
       <c r="Q221">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S221">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T221">
+        <v>5.52</v>
+      </c>
+      <c r="U221">
+        <v>2.32</v>
+      </c>
+      <c r="V221">
         <v>2.27</v>
       </c>
-      <c r="U221">
-        <v>2.39</v>
-      </c>
-      <c r="V221">
-        <v>5.21</v>
-      </c>
       <c r="W221">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X221">
-        <v>3.24</v>
+        <v>3.05</v>
       </c>
       <c r="Y221">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="Z221">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AA221">
-        <v>6.35</v>
+        <v>7.2</v>
       </c>
       <c r="AB221">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC221">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="AD221">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AE221">
-        <v>4.75</v>
+        <v>1.62</v>
       </c>
       <c r="AF221">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="AG221">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH221">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AI221">
-        <v>4.06</v>
+        <v>3.65</v>
       </c>
       <c r="AJ221">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="AK221">
+        <v>1.82</v>
+      </c>
+      <c r="AL221">
         <v>1.93</v>
       </c>
-      <c r="AL221">
-        <v>1.81</v>
-      </c>
       <c r="AM221">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AN221">
-        <v>1.19</v>
+        <v>2.25</v>
       </c>
       <c r="AO221">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AP221">
-        <v>2.25</v>
+        <v>1.17</v>
       </c>
       <c r="AQ221">
-        <v>1.85</v>
+        <v>1.31</v>
       </c>
       <c r="AR221">
-        <v>0.92</v>
+        <v>1.69</v>
       </c>
       <c r="AS221">
-        <v>1.93</v>
+        <v>1.2</v>
       </c>
       <c r="AT221">
-        <v>0.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU221">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AV221">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="AW221">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="AX221">
-        <v>1.45</v>
+        <v>3.16</v>
       </c>
       <c r="AY221">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ221">
-        <v>3.26</v>
+        <v>1.51</v>
       </c>
       <c r="BA221">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="BB221">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="BC221">
-        <v>1.75</v>
+        <v>2.17</v>
       </c>
       <c r="BD221">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="BE221">
-        <v>2.93</v>
+        <v>4.1</v>
       </c>
       <c r="BF221">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BG221">
         <v>5</v>
       </c>
       <c r="BH221">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI221">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ221">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK221">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:63">
@@ -43593,7 +43620,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1565007</v>
+        <v>1565005</v>
       </c>
       <c r="C222" t="s">
         <v>63</v>
@@ -43608,175 +43635,175 @@
         <v>28</v>
       </c>
       <c r="G222" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H222" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222">
         <v>0</v>
       </c>
       <c r="K222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L222">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M222">
         <v>0</v>
       </c>
       <c r="N222">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O222" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P222" t="s">
         <v>84</v>
       </c>
       <c r="Q222">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S222">
         <v>7</v>
       </c>
       <c r="T222">
-        <v>2.7</v>
+        <v>2.27</v>
       </c>
       <c r="U222">
-        <v>2.1</v>
+        <v>2.39</v>
       </c>
       <c r="V222">
-        <v>3.6</v>
+        <v>5.21</v>
       </c>
       <c r="W222">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="X222">
-        <v>2.75</v>
+        <v>3.24</v>
       </c>
       <c r="Y222">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="Z222">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AA222">
+        <v>6.35</v>
+      </c>
+      <c r="AB222">
+        <v>1.1</v>
+      </c>
+      <c r="AC222">
+        <v>1.6</v>
+      </c>
+      <c r="AD222">
+        <v>3.75</v>
+      </c>
+      <c r="AE222">
+        <v>4.75</v>
+      </c>
+      <c r="AF222">
+        <v>1</v>
+      </c>
+      <c r="AG222">
+        <v>10</v>
+      </c>
+      <c r="AH222">
+        <v>1.24</v>
+      </c>
+      <c r="AI222">
+        <v>4.06</v>
+      </c>
+      <c r="AJ222">
+        <v>1.81</v>
+      </c>
+      <c r="AK222">
+        <v>1.93</v>
+      </c>
+      <c r="AL222">
+        <v>1.81</v>
+      </c>
+      <c r="AM222">
+        <v>2</v>
+      </c>
+      <c r="AN222">
+        <v>1.19</v>
+      </c>
+      <c r="AO222">
+        <v>1.25</v>
+      </c>
+      <c r="AP222">
+        <v>2.25</v>
+      </c>
+      <c r="AQ222">
+        <v>1.85</v>
+      </c>
+      <c r="AR222">
+        <v>0.92</v>
+      </c>
+      <c r="AS222">
+        <v>2</v>
+      </c>
+      <c r="AT222">
+        <v>0.8</v>
+      </c>
+      <c r="AU222">
+        <v>1.65</v>
+      </c>
+      <c r="AV222">
+        <v>1.22</v>
+      </c>
+      <c r="AW222">
+        <v>2.87</v>
+      </c>
+      <c r="AX222">
+        <v>1.45</v>
+      </c>
+      <c r="AY222">
+        <v>9</v>
+      </c>
+      <c r="AZ222">
+        <v>3.26</v>
+      </c>
+      <c r="BA222">
+        <v>1.2</v>
+      </c>
+      <c r="BB222">
+        <v>1.41</v>
+      </c>
+      <c r="BC222">
+        <v>1.75</v>
+      </c>
+      <c r="BD222">
+        <v>2.2</v>
+      </c>
+      <c r="BE222">
+        <v>2.93</v>
+      </c>
+      <c r="BF222">
         <v>7</v>
       </c>
-      <c r="AB222">
-        <v>1.08</v>
-      </c>
-      <c r="AC222">
-        <v>2.1</v>
-      </c>
-      <c r="AD222">
-        <v>3.3</v>
-      </c>
-      <c r="AE222">
-        <v>3.1</v>
-      </c>
-      <c r="AF222">
-        <v>1.06</v>
-      </c>
-      <c r="AG222">
-        <v>8</v>
-      </c>
-      <c r="AH222">
-        <v>1.33</v>
-      </c>
-      <c r="AI222">
-        <v>3.25</v>
-      </c>
-      <c r="AJ222">
-        <v>1.93</v>
-      </c>
-      <c r="AK222">
-        <v>1.81</v>
-      </c>
-      <c r="AL222">
-        <v>1.8</v>
-      </c>
-      <c r="AM222">
-        <v>1.91</v>
-      </c>
-      <c r="AN222">
-        <v>1.3</v>
-      </c>
-      <c r="AO222">
-        <v>1.33</v>
-      </c>
-      <c r="AP222">
-        <v>1.65</v>
-      </c>
-      <c r="AQ222">
-        <v>1.25</v>
-      </c>
-      <c r="AR222">
-        <v>1.46</v>
-      </c>
-      <c r="AS222">
-        <v>1.38</v>
-      </c>
-      <c r="AT222">
-        <v>1.36</v>
-      </c>
-      <c r="AU222">
-        <v>1.73</v>
-      </c>
-      <c r="AV222">
-        <v>1.8</v>
-      </c>
-      <c r="AW222">
-        <v>3.53</v>
-      </c>
-      <c r="AX222">
-        <v>1.68</v>
-      </c>
-      <c r="AY222">
-        <v>5.75</v>
-      </c>
-      <c r="AZ222">
-        <v>2.4</v>
-      </c>
-      <c r="BA222">
-        <v>1.27</v>
-      </c>
-      <c r="BB222">
-        <v>1.5</v>
-      </c>
-      <c r="BC222">
-        <v>1.85</v>
-      </c>
-      <c r="BD222">
-        <v>2.45</v>
-      </c>
-      <c r="BE222">
-        <v>3.4</v>
-      </c>
-      <c r="BF222">
+      <c r="BG222">
         <v>5</v>
-      </c>
-      <c r="BG222">
-        <v>3</v>
       </c>
       <c r="BH222">
         <v>9</v>
       </c>
       <c r="BI222">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ222">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK222">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:63">
@@ -43784,7 +43811,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1565003</v>
+        <v>1565007</v>
       </c>
       <c r="C223" t="s">
         <v>63</v>
@@ -43793,97 +43820,97 @@
         <v>64</v>
       </c>
       <c r="E223" s="2">
-        <v>44857.79166666666</v>
+        <v>44857.625</v>
       </c>
       <c r="F223">
         <v>28</v>
       </c>
       <c r="G223" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H223" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J223">
         <v>0</v>
       </c>
       <c r="K223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M223">
         <v>0</v>
       </c>
       <c r="N223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O223" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P223" t="s">
         <v>84</v>
       </c>
       <c r="Q223">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R223">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S223">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T223">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="U223">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="V223">
-        <v>3.23</v>
+        <v>3.6</v>
       </c>
       <c r="W223">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X223">
-        <v>3.04</v>
+        <v>2.75</v>
       </c>
       <c r="Y223">
-        <v>2.94</v>
+        <v>2.75</v>
       </c>
       <c r="Z223">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AA223">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB223">
         <v>1.08</v>
       </c>
       <c r="AC223">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="AD223">
+        <v>3.3</v>
+      </c>
+      <c r="AE223">
+        <v>3.1</v>
+      </c>
+      <c r="AF223">
+        <v>1.06</v>
+      </c>
+      <c r="AG223">
+        <v>8</v>
+      </c>
+      <c r="AH223">
+        <v>1.33</v>
+      </c>
+      <c r="AI223">
         <v>3.25</v>
-      </c>
-      <c r="AE223">
-        <v>2.5</v>
-      </c>
-      <c r="AF223">
-        <v>1.02</v>
-      </c>
-      <c r="AG223">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH223">
-        <v>1.3</v>
-      </c>
-      <c r="AI223">
-        <v>3.56</v>
       </c>
       <c r="AJ223">
         <v>1.93</v>
@@ -43892,82 +43919,82 @@
         <v>1.81</v>
       </c>
       <c r="AL223">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AM223">
-        <v>2.13</v>
+        <v>1.91</v>
       </c>
       <c r="AN223">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="AO223">
         <v>1.33</v>
       </c>
       <c r="AP223">
+        <v>1.65</v>
+      </c>
+      <c r="AQ223">
+        <v>1.15</v>
+      </c>
+      <c r="AR223">
         <v>1.46</v>
       </c>
-      <c r="AQ223">
-        <v>1.46</v>
-      </c>
-      <c r="AR223">
-        <v>1.08</v>
-      </c>
       <c r="AS223">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="AT223">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AU223">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AV223">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AW223">
-        <v>3.3</v>
+        <v>3.53</v>
       </c>
       <c r="AX223">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="AY223">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="AZ223">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="BA223">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BB223">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BC223">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="BD223">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="BE223">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BF223">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH223">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI223">
         <v>6</v>
       </c>
       <c r="BJ223">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BK223">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:63">
@@ -43975,7 +44002,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1565008</v>
+        <v>1565003</v>
       </c>
       <c r="C224" t="s">
         <v>63</v>
@@ -43984,181 +44011,181 @@
         <v>64</v>
       </c>
       <c r="E224" s="2">
-        <v>44858.85416666666</v>
+        <v>44857.79166666666</v>
       </c>
       <c r="F224">
         <v>28</v>
       </c>
       <c r="G224" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H224" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J224">
         <v>0</v>
       </c>
       <c r="K224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O224" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="P224" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="Q224">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R224">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S224">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="T224">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="U224">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V224">
-        <v>3.74</v>
+        <v>3.23</v>
       </c>
       <c r="W224">
         <v>1.39</v>
       </c>
       <c r="X224">
-        <v>2.75</v>
+        <v>3.04</v>
       </c>
       <c r="Y224">
-        <v>2.75</v>
+        <v>2.94</v>
       </c>
       <c r="Z224">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AA224">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB224">
         <v>1.08</v>
       </c>
       <c r="AC224">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="AD224">
-        <v>3.46</v>
+        <v>3.25</v>
       </c>
       <c r="AE224">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="AF224">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG224">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH224">
         <v>1.3</v>
       </c>
       <c r="AI224">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="AJ224">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AK224">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AL224">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AM224">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="AN224">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="AO224">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AP224">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AQ224">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AR224">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AS224">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AT224">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU224">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AV224">
+        <v>1.53</v>
+      </c>
+      <c r="AW224">
+        <v>3.3</v>
+      </c>
+      <c r="AX224">
+        <v>2</v>
+      </c>
+      <c r="AY224">
+        <v>5.25</v>
+      </c>
+      <c r="AZ224">
+        <v>2</v>
+      </c>
+      <c r="BA224">
+        <v>1.32</v>
+      </c>
+      <c r="BB224">
         <v>1.58</v>
       </c>
-      <c r="AW224">
-        <v>3.32</v>
-      </c>
-      <c r="AX224">
-        <v>1.75</v>
-      </c>
-      <c r="AY224">
-        <v>6.9</v>
-      </c>
-      <c r="AZ224">
-        <v>2.69</v>
-      </c>
-      <c r="BA224">
-        <v>1.42</v>
-      </c>
-      <c r="BB224">
-        <v>1.77</v>
-      </c>
       <c r="BC224">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="BD224">
-        <v>3.04</v>
+        <v>2.7</v>
       </c>
       <c r="BE224">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="BF224">
+        <v>8</v>
+      </c>
+      <c r="BG224">
+        <v>0</v>
+      </c>
+      <c r="BH224">
+        <v>10</v>
+      </c>
+      <c r="BI224">
         <v>6</v>
       </c>
-      <c r="BG224">
-        <v>13</v>
-      </c>
-      <c r="BH224">
-        <v>8</v>
-      </c>
-      <c r="BI224">
-        <v>7</v>
-      </c>
       <c r="BJ224">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BK224">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:63">
@@ -44166,7 +44193,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1565015</v>
+        <v>1565008</v>
       </c>
       <c r="C225" t="s">
         <v>63</v>
@@ -44175,16 +44202,16 @@
         <v>64</v>
       </c>
       <c r="E225" s="2">
-        <v>44863.83333333334</v>
+        <v>44858.85416666666</v>
       </c>
       <c r="F225">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G225" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H225" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -44199,157 +44226,157 @@
         <v>1</v>
       </c>
       <c r="M225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O225" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="P225" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="Q225">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R225">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S225">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T225">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="U225">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="V225">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="W225">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X225">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y225">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z225">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AA225">
         <v>7</v>
       </c>
       <c r="AB225">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC225">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="AD225">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="AE225">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AF225">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AG225">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH225">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI225">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ225">
+        <v>1.8</v>
+      </c>
+      <c r="AK225">
+        <v>1.8</v>
+      </c>
+      <c r="AL225">
+        <v>1.7</v>
+      </c>
+      <c r="AM225">
+        <v>2.05</v>
+      </c>
+      <c r="AN225">
+        <v>1.36</v>
+      </c>
+      <c r="AO225">
+        <v>1.3</v>
+      </c>
+      <c r="AP225">
+        <v>1.65</v>
+      </c>
+      <c r="AQ225">
+        <v>1.38</v>
+      </c>
+      <c r="AR225">
+        <v>1.23</v>
+      </c>
+      <c r="AS225">
+        <v>1.47</v>
+      </c>
+      <c r="AT225">
+        <v>1.2</v>
+      </c>
+      <c r="AU225">
+        <v>1.74</v>
+      </c>
+      <c r="AV225">
+        <v>1.58</v>
+      </c>
+      <c r="AW225">
+        <v>3.32</v>
+      </c>
+      <c r="AX225">
+        <v>1.75</v>
+      </c>
+      <c r="AY225">
+        <v>6.9</v>
+      </c>
+      <c r="AZ225">
+        <v>2.69</v>
+      </c>
+      <c r="BA225">
+        <v>1.42</v>
+      </c>
+      <c r="BB225">
         <v>1.77</v>
       </c>
-      <c r="AK225">
-        <v>1.99</v>
-      </c>
-      <c r="AL225">
-        <v>1.67</v>
-      </c>
-      <c r="AM225">
-        <v>2.1</v>
-      </c>
-      <c r="AN225">
-        <v>0</v>
-      </c>
-      <c r="AO225">
-        <v>0</v>
-      </c>
-      <c r="AP225">
-        <v>0</v>
-      </c>
-      <c r="AQ225">
-        <v>1.93</v>
-      </c>
-      <c r="AR225">
-        <v>1</v>
-      </c>
-      <c r="AS225">
-        <v>2</v>
-      </c>
-      <c r="AT225">
-        <v>0.93</v>
-      </c>
-      <c r="AU225">
-        <v>2.14</v>
-      </c>
-      <c r="AV225">
-        <v>1.63</v>
-      </c>
-      <c r="AW225">
-        <v>3.77</v>
-      </c>
-      <c r="AX225">
-        <v>0</v>
-      </c>
-      <c r="AY225">
-        <v>0</v>
-      </c>
-      <c r="AZ225">
-        <v>0</v>
-      </c>
-      <c r="BA225">
-        <v>0</v>
-      </c>
-      <c r="BB225">
-        <v>0</v>
-      </c>
       <c r="BC225">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="BD225">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="BE225">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BF225">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG225">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BH225">
+        <v>8</v>
+      </c>
+      <c r="BI225">
         <v>7</v>
       </c>
-      <c r="BI225">
-        <v>10</v>
-      </c>
       <c r="BJ225">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK225">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:63">
@@ -44357,7 +44384,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1565010</v>
+        <v>1565015</v>
       </c>
       <c r="C226" t="s">
         <v>63</v>
@@ -44366,178 +44393,178 @@
         <v>64</v>
       </c>
       <c r="E226" s="2">
-        <v>44864.52083333334</v>
+        <v>44863.83333333334</v>
       </c>
       <c r="F226">
         <v>29</v>
       </c>
       <c r="G226" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H226" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J226">
         <v>0</v>
       </c>
       <c r="K226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M226">
         <v>0</v>
       </c>
       <c r="N226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O226" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P226" t="s">
         <v>84</v>
       </c>
       <c r="Q226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R226">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S226">
+        <v>11</v>
+      </c>
+      <c r="T226">
+        <v>2.63</v>
+      </c>
+      <c r="U226">
+        <v>2.25</v>
+      </c>
+      <c r="V226">
+        <v>3.75</v>
+      </c>
+      <c r="W226">
+        <v>1.36</v>
+      </c>
+      <c r="X226">
+        <v>3</v>
+      </c>
+      <c r="Y226">
+        <v>2.63</v>
+      </c>
+      <c r="Z226">
+        <v>1.44</v>
+      </c>
+      <c r="AA226">
         <v>7</v>
       </c>
-      <c r="T226">
-        <v>3.1</v>
-      </c>
-      <c r="U226">
-        <v>2.06</v>
-      </c>
-      <c r="V226">
-        <v>3.6</v>
-      </c>
-      <c r="W226">
-        <v>1.47</v>
-      </c>
-      <c r="X226">
-        <v>2.5</v>
-      </c>
-      <c r="Y226">
-        <v>3.2</v>
-      </c>
-      <c r="Z226">
-        <v>1.3</v>
-      </c>
-      <c r="AA226">
-        <v>8.75</v>
-      </c>
       <c r="AB226">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AC226">
-        <v>2.5</v>
+        <v>2.01</v>
       </c>
       <c r="AD226">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="AE226">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="AF226">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AG226">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AH226">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AI226">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AJ226">
-        <v>2.23</v>
+        <v>1.77</v>
       </c>
       <c r="AK226">
-        <v>1.62</v>
+        <v>1.99</v>
       </c>
       <c r="AL226">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AM226">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AN226">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AO226">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP226">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AQ226">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="AR226">
-        <v>0.79</v>
+        <v>1.14</v>
       </c>
       <c r="AS226">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AT226">
-        <v>0.73</v>
+        <v>1.07</v>
       </c>
       <c r="AU226">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AV226">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AW226">
-        <v>3.43</v>
+        <v>3.77</v>
       </c>
       <c r="AX226">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AY226">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AZ226">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="BA226">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="BB226">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="BC226">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="BD226">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="BE226">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="BF226">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG226">
         <v>3</v>
       </c>
       <c r="BH226">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI226">
         <v>10</v>
       </c>
       <c r="BJ226">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BK226">
         <v>13</v>
@@ -44548,7 +44575,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1565013</v>
+        <v>1565010</v>
       </c>
       <c r="C227" t="s">
         <v>63</v>
@@ -44557,181 +44584,181 @@
         <v>64</v>
       </c>
       <c r="E227" s="2">
-        <v>44864.625</v>
+        <v>44864.52083333334</v>
       </c>
       <c r="F227">
         <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H227" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O227" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>291</v>
+        <v>84</v>
       </c>
       <c r="Q227">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R227">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S227">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T227">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="U227">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="V227">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="W227">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="X227">
+        <v>2.5</v>
+      </c>
+      <c r="Y227">
+        <v>3.2</v>
+      </c>
+      <c r="Z227">
+        <v>1.3</v>
+      </c>
+      <c r="AA227">
+        <v>8.75</v>
+      </c>
+      <c r="AB227">
+        <v>1.06</v>
+      </c>
+      <c r="AC227">
+        <v>2.5</v>
+      </c>
+      <c r="AD227">
+        <v>3.1</v>
+      </c>
+      <c r="AE227">
         <v>2.75</v>
       </c>
-      <c r="Y227">
-        <v>2.75</v>
-      </c>
-      <c r="Z227">
-        <v>1.39</v>
-      </c>
-      <c r="AA227">
+      <c r="AF227">
+        <v>1.08</v>
+      </c>
+      <c r="AG227">
+        <v>8.5</v>
+      </c>
+      <c r="AH227">
+        <v>1.4</v>
+      </c>
+      <c r="AI227">
+        <v>2.95</v>
+      </c>
+      <c r="AJ227">
+        <v>2.23</v>
+      </c>
+      <c r="AK227">
+        <v>1.62</v>
+      </c>
+      <c r="AL227">
+        <v>1.86</v>
+      </c>
+      <c r="AM227">
+        <v>1.9</v>
+      </c>
+      <c r="AN227">
+        <v>1.41</v>
+      </c>
+      <c r="AO227">
+        <v>1.33</v>
+      </c>
+      <c r="AP227">
+        <v>1.54</v>
+      </c>
+      <c r="AQ227">
+        <v>1.43</v>
+      </c>
+      <c r="AR227">
+        <v>0.79</v>
+      </c>
+      <c r="AS227">
+        <v>1.53</v>
+      </c>
+      <c r="AT227">
+        <v>0.73</v>
+      </c>
+      <c r="AU227">
+        <v>1.86</v>
+      </c>
+      <c r="AV227">
+        <v>1.57</v>
+      </c>
+      <c r="AW227">
+        <v>3.43</v>
+      </c>
+      <c r="AX227">
+        <v>1.64</v>
+      </c>
+      <c r="AY227">
+        <v>8</v>
+      </c>
+      <c r="AZ227">
+        <v>2.77</v>
+      </c>
+      <c r="BA227">
+        <v>1.35</v>
+      </c>
+      <c r="BB227">
+        <v>1.66</v>
+      </c>
+      <c r="BC227">
+        <v>2.12</v>
+      </c>
+      <c r="BD227">
+        <v>2.81</v>
+      </c>
+      <c r="BE227">
+        <v>3.74</v>
+      </c>
+      <c r="BF227">
         <v>7</v>
-      </c>
-      <c r="AB227">
-        <v>1.08</v>
-      </c>
-      <c r="AC227">
-        <v>3.15</v>
-      </c>
-      <c r="AD227">
-        <v>3.3</v>
-      </c>
-      <c r="AE227">
-        <v>2.09</v>
-      </c>
-      <c r="AF227">
-        <v>1.05</v>
-      </c>
-      <c r="AG227">
-        <v>9.25</v>
-      </c>
-      <c r="AH227">
-        <v>1.27</v>
-      </c>
-      <c r="AI227">
-        <v>3.79</v>
-      </c>
-      <c r="AJ227">
-        <v>1.95</v>
-      </c>
-      <c r="AK227">
-        <v>1.87</v>
-      </c>
-      <c r="AL227">
-        <v>1.71</v>
-      </c>
-      <c r="AM227">
-        <v>2.05</v>
-      </c>
-      <c r="AN227">
-        <v>1.73</v>
-      </c>
-      <c r="AO227">
-        <v>1.28</v>
-      </c>
-      <c r="AP227">
-        <v>1.26</v>
-      </c>
-      <c r="AQ227">
-        <v>0.86</v>
-      </c>
-      <c r="AR227">
-        <v>1</v>
-      </c>
-      <c r="AS227">
-        <v>1</v>
-      </c>
-      <c r="AT227">
-        <v>0.93</v>
-      </c>
-      <c r="AU227">
-        <v>1.4</v>
-      </c>
-      <c r="AV227">
-        <v>1.35</v>
-      </c>
-      <c r="AW227">
-        <v>2.75</v>
-      </c>
-      <c r="AX227">
-        <v>2.26</v>
-      </c>
-      <c r="AY227">
-        <v>7</v>
-      </c>
-      <c r="AZ227">
-        <v>1.99</v>
-      </c>
-      <c r="BA227">
-        <v>1.27</v>
-      </c>
-      <c r="BB227">
-        <v>1.52</v>
-      </c>
-      <c r="BC227">
-        <v>1.93</v>
-      </c>
-      <c r="BD227">
-        <v>2.5</v>
-      </c>
-      <c r="BE227">
-        <v>3.34</v>
-      </c>
-      <c r="BF227">
-        <v>3</v>
       </c>
       <c r="BG227">
         <v>3</v>
       </c>
       <c r="BH227">
+        <v>10</v>
+      </c>
+      <c r="BI227">
+        <v>10</v>
+      </c>
+      <c r="BJ227">
+        <v>17</v>
+      </c>
+      <c r="BK227">
         <v>13</v>
-      </c>
-      <c r="BI227">
-        <v>7</v>
-      </c>
-      <c r="BJ227">
-        <v>16</v>
-      </c>
-      <c r="BK227">
-        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:63">
@@ -44739,7 +44766,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>1565011</v>
+        <v>1565013</v>
       </c>
       <c r="C228" t="s">
         <v>63</v>
@@ -44754,175 +44781,175 @@
         <v>29</v>
       </c>
       <c r="G228" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H228" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K228">
         <v>1</v>
       </c>
       <c r="L228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N228">
         <v>3</v>
       </c>
       <c r="O228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P228" t="s">
-        <v>84</v>
+        <v>296</v>
       </c>
       <c r="Q228">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S228">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T228">
-        <v>2.28</v>
+        <v>4</v>
       </c>
       <c r="U228">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V228">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="W228">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X228">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Y228">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="Z228">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AA228">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AB228">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC228">
-        <v>1.72</v>
+        <v>3.15</v>
       </c>
       <c r="AD228">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AE228">
-        <v>4.3</v>
+        <v>2.09</v>
       </c>
       <c r="AF228">
         <v>1.05</v>
       </c>
       <c r="AG228">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AH228">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AI228">
-        <v>3.17</v>
+        <v>3.79</v>
       </c>
       <c r="AJ228">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AK228">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="AL228">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="AM228">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="AN228">
-        <v>1.15</v>
+        <v>1.73</v>
       </c>
       <c r="AO228">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AP228">
-        <v>2.08</v>
+        <v>1.26</v>
       </c>
       <c r="AQ228">
-        <v>1.43</v>
+        <v>0.86</v>
       </c>
       <c r="AR228">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AS228">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="AT228">
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
       <c r="AU228">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="AV228">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AW228">
-        <v>3.12</v>
+        <v>2.75</v>
       </c>
       <c r="AX228">
-        <v>1.67</v>
+        <v>2.26</v>
       </c>
       <c r="AY228">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AZ228">
-        <v>2.84</v>
+        <v>1.99</v>
       </c>
       <c r="BA228">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="BB228">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="BC228">
-        <v>2.19</v>
+        <v>1.93</v>
       </c>
       <c r="BD228">
-        <v>2.91</v>
+        <v>2.5</v>
       </c>
       <c r="BE228">
-        <v>4.4</v>
+        <v>3.34</v>
       </c>
       <c r="BF228">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH228">
         <v>13</v>
       </c>
       <c r="BI228">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ228">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BK228">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:63">
@@ -44930,7 +44957,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>1565012</v>
+        <v>1565011</v>
       </c>
       <c r="C229" t="s">
         <v>63</v>
@@ -44945,172 +44972,172 @@
         <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H229" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229">
         <v>0</v>
       </c>
       <c r="K229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
         <v>3</v>
       </c>
-      <c r="N229">
+      <c r="O229" t="s">
+        <v>234</v>
+      </c>
+      <c r="P229" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q229">
+        <v>6</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>8</v>
+      </c>
+      <c r="T229">
+        <v>2.28</v>
+      </c>
+      <c r="U229">
+        <v>2.18</v>
+      </c>
+      <c r="V229">
+        <v>5</v>
+      </c>
+      <c r="W229">
+        <v>1.37</v>
+      </c>
+      <c r="X229">
+        <v>2.85</v>
+      </c>
+      <c r="Y229">
+        <v>3.05</v>
+      </c>
+      <c r="Z229">
+        <v>1.33</v>
+      </c>
+      <c r="AA229">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB229">
+        <v>1.06</v>
+      </c>
+      <c r="AC229">
+        <v>1.72</v>
+      </c>
+      <c r="AD229">
+        <v>3.5</v>
+      </c>
+      <c r="AE229">
+        <v>4.3</v>
+      </c>
+      <c r="AF229">
+        <v>1.05</v>
+      </c>
+      <c r="AG229">
+        <v>8</v>
+      </c>
+      <c r="AH229">
+        <v>1.36</v>
+      </c>
+      <c r="AI229">
+        <v>3.17</v>
+      </c>
+      <c r="AJ229">
+        <v>2.06</v>
+      </c>
+      <c r="AK229">
+        <v>1.76</v>
+      </c>
+      <c r="AL229">
+        <v>1.98</v>
+      </c>
+      <c r="AM229">
+        <v>1.76</v>
+      </c>
+      <c r="AN229">
+        <v>1.15</v>
+      </c>
+      <c r="AO229">
+        <v>1.24</v>
+      </c>
+      <c r="AP229">
+        <v>2.08</v>
+      </c>
+      <c r="AQ229">
+        <v>1.43</v>
+      </c>
+      <c r="AR229">
+        <v>0.57</v>
+      </c>
+      <c r="AS229">
+        <v>1.53</v>
+      </c>
+      <c r="AT229">
+        <v>0.53</v>
+      </c>
+      <c r="AU229">
+        <v>1.83</v>
+      </c>
+      <c r="AV229">
+        <v>1.29</v>
+      </c>
+      <c r="AW229">
+        <v>3.12</v>
+      </c>
+      <c r="AX229">
+        <v>1.67</v>
+      </c>
+      <c r="AY229">
+        <v>7.7</v>
+      </c>
+      <c r="AZ229">
+        <v>2.84</v>
+      </c>
+      <c r="BA229">
+        <v>1.4</v>
+      </c>
+      <c r="BB229">
+        <v>1.73</v>
+      </c>
+      <c r="BC229">
+        <v>2.19</v>
+      </c>
+      <c r="BD229">
+        <v>2.91</v>
+      </c>
+      <c r="BE229">
+        <v>4.4</v>
+      </c>
+      <c r="BF229">
+        <v>6</v>
+      </c>
+      <c r="BG229">
         <v>4</v>
       </c>
-      <c r="O229" t="s">
-        <v>128</v>
-      </c>
-      <c r="P229" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q229">
-        <v>1</v>
-      </c>
-      <c r="R229">
-        <v>4</v>
-      </c>
-      <c r="S229">
-        <v>5</v>
-      </c>
-      <c r="T229">
-        <v>2.65</v>
-      </c>
-      <c r="U229">
-        <v>2.12</v>
-      </c>
-      <c r="V229">
-        <v>4</v>
-      </c>
-      <c r="W229">
-        <v>1.4</v>
-      </c>
-      <c r="X229">
-        <v>2.7</v>
-      </c>
-      <c r="Y229">
-        <v>2.85</v>
-      </c>
-      <c r="Z229">
-        <v>1.36</v>
-      </c>
-      <c r="AA229">
-        <v>7.5</v>
-      </c>
-      <c r="AB229">
-        <v>1.07</v>
-      </c>
-      <c r="AC229">
-        <v>2.05</v>
-      </c>
-      <c r="AD229">
-        <v>3.4</v>
-      </c>
-      <c r="AE229">
-        <v>3.15</v>
-      </c>
-      <c r="AF229">
-        <v>1.06</v>
-      </c>
-      <c r="AG229">
-        <v>8.75</v>
-      </c>
-      <c r="AH229">
-        <v>1.35</v>
-      </c>
-      <c r="AI229">
-        <v>3.18</v>
-      </c>
-      <c r="AJ229">
-        <v>1.94</v>
-      </c>
-      <c r="AK229">
-        <v>1.88</v>
-      </c>
-      <c r="AL229">
-        <v>1.82</v>
-      </c>
-      <c r="AM229">
-        <v>1.91</v>
-      </c>
-      <c r="AN229">
-        <v>1.26</v>
-      </c>
-      <c r="AO229">
-        <v>1.28</v>
-      </c>
-      <c r="AP229">
-        <v>1.73</v>
-      </c>
-      <c r="AQ229">
-        <v>1.29</v>
-      </c>
-      <c r="AR229">
-        <v>0.43</v>
-      </c>
-      <c r="AS229">
-        <v>1.2</v>
-      </c>
-      <c r="AT229">
-        <v>0.6</v>
-      </c>
-      <c r="AU229">
-        <v>1.69</v>
-      </c>
-      <c r="AV229">
-        <v>1.47</v>
-      </c>
-      <c r="AW229">
-        <v>3.16</v>
-      </c>
-      <c r="AX229">
-        <v>1.71</v>
-      </c>
-      <c r="AY229">
-        <v>7.2</v>
-      </c>
-      <c r="AZ229">
-        <v>2.8</v>
-      </c>
-      <c r="BA229">
-        <v>1.29</v>
-      </c>
-      <c r="BB229">
-        <v>1.56</v>
-      </c>
-      <c r="BC229">
-        <v>1.98</v>
-      </c>
-      <c r="BD229">
-        <v>2.59</v>
-      </c>
-      <c r="BE229">
-        <v>3.48</v>
-      </c>
-      <c r="BF229">
-        <v>4</v>
-      </c>
-      <c r="BG229">
-        <v>7</v>
-      </c>
       <c r="BH229">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BI229">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ229">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BK229">
         <v>12</v>
@@ -45121,7 +45148,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>1565016</v>
+        <v>1565012</v>
       </c>
       <c r="C230" t="s">
         <v>63</v>
@@ -45130,16 +45157,16 @@
         <v>64</v>
       </c>
       <c r="E230" s="2">
-        <v>44864.72916666666</v>
+        <v>44864.625</v>
       </c>
       <c r="F230">
         <v>29</v>
       </c>
       <c r="G230" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H230" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -45151,46 +45178,46 @@
         <v>0</v>
       </c>
       <c r="L230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O230" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="P230" t="s">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="Q230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R230">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S230">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="T230">
-        <v>1.92</v>
+        <v>2.65</v>
       </c>
       <c r="U230">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="V230">
-        <v>6.75</v>
+        <v>4</v>
       </c>
       <c r="W230">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X230">
         <v>2.7</v>
       </c>
       <c r="Y230">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Z230">
         <v>1.36</v>
@@ -45202,91 +45229,91 @@
         <v>1.07</v>
       </c>
       <c r="AC230">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="AD230">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AE230">
-        <v>6.8</v>
+        <v>3.15</v>
       </c>
       <c r="AF230">
         <v>1.06</v>
       </c>
       <c r="AG230">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH230">
         <v>1.35</v>
       </c>
       <c r="AI230">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="AJ230">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="AK230">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AL230">
-        <v>2.28</v>
+        <v>1.82</v>
       </c>
       <c r="AM230">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
       <c r="AN230">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="AO230">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AP230">
+        <v>1.73</v>
+      </c>
+      <c r="AQ230">
+        <v>1.29</v>
+      </c>
+      <c r="AR230">
+        <v>0.43</v>
+      </c>
+      <c r="AS230">
+        <v>1.2</v>
+      </c>
+      <c r="AT230">
+        <v>0.6</v>
+      </c>
+      <c r="AU230">
+        <v>1.69</v>
+      </c>
+      <c r="AV230">
+        <v>1.47</v>
+      </c>
+      <c r="AW230">
+        <v>3.16</v>
+      </c>
+      <c r="AX230">
+        <v>1.71</v>
+      </c>
+      <c r="AY230">
+        <v>7.2</v>
+      </c>
+      <c r="AZ230">
         <v>2.8</v>
       </c>
-      <c r="AQ230">
-        <v>2.43</v>
-      </c>
-      <c r="AR230">
-        <v>1</v>
-      </c>
-      <c r="AS230">
-        <v>2.47</v>
-      </c>
-      <c r="AT230">
-        <v>0.93</v>
-      </c>
-      <c r="AU230">
-        <v>2.08</v>
-      </c>
-      <c r="AV230">
-        <v>1.51</v>
-      </c>
-      <c r="AW230">
-        <v>3.59</v>
-      </c>
-      <c r="AX230">
-        <v>1.2</v>
-      </c>
-      <c r="AY230">
-        <v>10.5</v>
-      </c>
-      <c r="AZ230">
-        <v>6.55</v>
-      </c>
       <c r="BA230">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="BB230">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="BC230">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="BD230">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="BE230">
-        <v>3.74</v>
+        <v>3.48</v>
       </c>
       <c r="BF230">
         <v>4</v>
@@ -45295,16 +45322,16 @@
         <v>7</v>
       </c>
       <c r="BH230">
+        <v>3</v>
+      </c>
+      <c r="BI230">
+        <v>5</v>
+      </c>
+      <c r="BJ230">
         <v>7</v>
       </c>
-      <c r="BI230">
-        <v>6</v>
-      </c>
-      <c r="BJ230">
-        <v>11</v>
-      </c>
       <c r="BK230">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:63">
@@ -45312,7 +45339,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>1565017</v>
+        <v>1565016</v>
       </c>
       <c r="C231" t="s">
         <v>63</v>
@@ -45321,97 +45348,97 @@
         <v>64</v>
       </c>
       <c r="E231" s="2">
-        <v>44865.72916666666</v>
+        <v>44864.72916666666</v>
       </c>
       <c r="F231">
         <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H231" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231" t="s">
+        <v>235</v>
+      </c>
+      <c r="P231" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q231">
         <v>3</v>
       </c>
-      <c r="O231" t="s">
-        <v>236</v>
-      </c>
-      <c r="P231" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q231">
-        <v>4</v>
-      </c>
       <c r="R231">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S231">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T231">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="U231">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="V231">
-        <v>3.6</v>
+        <v>6.75</v>
       </c>
       <c r="W231">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X231">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Y231">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Z231">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AA231">
-        <v>7.85</v>
+        <v>7.5</v>
       </c>
       <c r="AB231">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AC231">
-        <v>2.21</v>
+        <v>1.4</v>
       </c>
       <c r="AD231">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="AE231">
-        <v>2.87</v>
+        <v>6.8</v>
       </c>
       <c r="AF231">
         <v>1.06</v>
       </c>
       <c r="AG231">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH231">
         <v>1.35</v>
       </c>
       <c r="AI231">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="AJ231">
         <v>2.02</v>
@@ -45420,82 +45447,82 @@
         <v>1.8</v>
       </c>
       <c r="AL231">
-        <v>1.8</v>
+        <v>2.28</v>
       </c>
       <c r="AM231">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="AN231">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="AO231">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AP231">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="AQ231">
-        <v>2.21</v>
+        <v>2.43</v>
       </c>
       <c r="AR231">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AS231">
-        <v>2.07</v>
+        <v>2.47</v>
       </c>
       <c r="AT231">
-        <v>1.4</v>
+        <v>0.93</v>
       </c>
       <c r="AU231">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="AV231">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="AW231">
-        <v>3.43</v>
+        <v>3.59</v>
       </c>
       <c r="AX231">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AY231">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AZ231">
-        <v>2.86</v>
+        <v>6.55</v>
       </c>
       <c r="BA231">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="BB231">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BC231">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="BD231">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="BE231">
         <v>3.74</v>
       </c>
       <c r="BF231">
+        <v>4</v>
+      </c>
+      <c r="BG231">
         <v>7</v>
       </c>
-      <c r="BG231">
-        <v>9</v>
-      </c>
       <c r="BH231">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI231">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ231">
         <v>11</v>
       </c>
       <c r="BK231">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:63">
@@ -45503,7 +45530,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>1565014</v>
+        <v>1565017</v>
       </c>
       <c r="C232" t="s">
         <v>63</v>
@@ -45512,181 +45539,1900 @@
         <v>64</v>
       </c>
       <c r="E232" s="2">
-        <v>44865.83333333334</v>
+        <v>44865.72916666666</v>
       </c>
       <c r="F232">
         <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H232" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O232" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="P232" t="s">
-        <v>84</v>
+        <v>337</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R232">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S232">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T232">
-        <v>2.37</v>
+        <v>3.2</v>
       </c>
       <c r="U232">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V232">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="W232">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X232">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Y232">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="Z232">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AA232">
-        <v>7.25</v>
+        <v>7.85</v>
       </c>
       <c r="AB232">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AC232">
-        <v>2.02</v>
+        <v>2.21</v>
       </c>
       <c r="AD232">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AE232">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="AF232">
         <v>1.06</v>
       </c>
       <c r="AG232">
+        <v>9.5</v>
+      </c>
+      <c r="AH232">
+        <v>1.35</v>
+      </c>
+      <c r="AI232">
+        <v>3.2</v>
+      </c>
+      <c r="AJ232">
+        <v>2.02</v>
+      </c>
+      <c r="AK232">
+        <v>1.8</v>
+      </c>
+      <c r="AL232">
+        <v>1.8</v>
+      </c>
+      <c r="AM232">
+        <v>1.95</v>
+      </c>
+      <c r="AN232">
+        <v>1.42</v>
+      </c>
+      <c r="AO232">
+        <v>1.3</v>
+      </c>
+      <c r="AP232">
+        <v>1.55</v>
+      </c>
+      <c r="AQ232">
+        <v>2.21</v>
+      </c>
+      <c r="AR232">
+        <v>1.29</v>
+      </c>
+      <c r="AS232">
+        <v>2.07</v>
+      </c>
+      <c r="AT232">
+        <v>1.4</v>
+      </c>
+      <c r="AU232">
+        <v>1.82</v>
+      </c>
+      <c r="AV232">
+        <v>1.61</v>
+      </c>
+      <c r="AW232">
+        <v>3.43</v>
+      </c>
+      <c r="AX232">
+        <v>1.64</v>
+      </c>
+      <c r="AY232">
+        <v>7.8</v>
+      </c>
+      <c r="AZ232">
+        <v>2.86</v>
+      </c>
+      <c r="BA232">
+        <v>1.34</v>
+      </c>
+      <c r="BB232">
+        <v>1.65</v>
+      </c>
+      <c r="BC232">
+        <v>2.1</v>
+      </c>
+      <c r="BD232">
+        <v>2.77</v>
+      </c>
+      <c r="BE232">
+        <v>3.74</v>
+      </c>
+      <c r="BF232">
+        <v>7</v>
+      </c>
+      <c r="BG232">
+        <v>9</v>
+      </c>
+      <c r="BH232">
+        <v>4</v>
+      </c>
+      <c r="BI232">
+        <v>5</v>
+      </c>
+      <c r="BJ232">
+        <v>11</v>
+      </c>
+      <c r="BK232">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>1565014</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44865.83333333334</v>
+      </c>
+      <c r="F233">
+        <v>29</v>
+      </c>
+      <c r="G233" t="s">
+        <v>78</v>
+      </c>
+      <c r="H233" t="s">
+        <v>71</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233" t="s">
+        <v>84</v>
+      </c>
+      <c r="P233" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q233">
+        <v>1</v>
+      </c>
+      <c r="R233">
+        <v>7</v>
+      </c>
+      <c r="S233">
         <v>8</v>
       </c>
-      <c r="AH232">
+      <c r="T233">
+        <v>2.37</v>
+      </c>
+      <c r="U233">
+        <v>2.1</v>
+      </c>
+      <c r="V233">
+        <v>4.4</v>
+      </c>
+      <c r="W233">
+        <v>1.4</v>
+      </c>
+      <c r="X233">
+        <v>2.7</v>
+      </c>
+      <c r="Y233">
+        <v>2.8</v>
+      </c>
+      <c r="Z233">
+        <v>1.37</v>
+      </c>
+      <c r="AA233">
+        <v>7.25</v>
+      </c>
+      <c r="AB233">
+        <v>1.08</v>
+      </c>
+      <c r="AC233">
+        <v>2.02</v>
+      </c>
+      <c r="AD233">
+        <v>3.45</v>
+      </c>
+      <c r="AE233">
+        <v>3.2</v>
+      </c>
+      <c r="AF233">
+        <v>1.06</v>
+      </c>
+      <c r="AG233">
+        <v>8</v>
+      </c>
+      <c r="AH233">
         <v>1.3</v>
       </c>
-      <c r="AI232">
+      <c r="AI233">
         <v>3.4</v>
       </c>
-      <c r="AJ232">
+      <c r="AJ233">
         <v>2.03</v>
       </c>
-      <c r="AK232">
+      <c r="AK233">
         <v>1.85</v>
       </c>
-      <c r="AL232">
+      <c r="AL233">
         <v>1.83</v>
       </c>
-      <c r="AM232">
+      <c r="AM233">
         <v>1.85</v>
       </c>
-      <c r="AN232">
+      <c r="AN233">
         <v>1.22</v>
       </c>
-      <c r="AO232">
+      <c r="AO233">
         <v>1.27</v>
       </c>
-      <c r="AP232">
+      <c r="AP233">
         <v>1.95</v>
       </c>
-      <c r="AQ232">
+      <c r="AQ233">
         <v>1.93</v>
       </c>
-      <c r="AR232">
+      <c r="AR233">
         <v>1.57</v>
       </c>
-      <c r="AS232">
+      <c r="AS233">
         <v>1.87</v>
       </c>
-      <c r="AT232">
+      <c r="AT233">
         <v>1.53</v>
       </c>
-      <c r="AU232">
+      <c r="AU233">
         <v>1.74</v>
       </c>
-      <c r="AV232">
+      <c r="AV233">
         <v>1.54</v>
       </c>
-      <c r="AW232">
+      <c r="AW233">
         <v>3.28</v>
       </c>
-      <c r="AX232">
+      <c r="AX233">
         <v>1.51</v>
       </c>
-      <c r="AY232">
+      <c r="AY233">
         <v>6</v>
       </c>
-      <c r="AZ232">
+      <c r="AZ233">
         <v>2.85</v>
       </c>
-      <c r="BA232">
+      <c r="BA233">
         <v>1.31</v>
       </c>
-      <c r="BB232">
+      <c r="BB233">
         <v>1.59</v>
       </c>
-      <c r="BC232">
+      <c r="BC233">
         <v>2.02</v>
       </c>
-      <c r="BD232">
+      <c r="BD233">
         <v>2.62</v>
       </c>
-      <c r="BE232">
+      <c r="BE233">
         <v>3.56</v>
       </c>
-      <c r="BF232">
+      <c r="BF233">
         <v>4</v>
       </c>
-      <c r="BG232">
+      <c r="BG233">
         <v>6</v>
       </c>
-      <c r="BH232">
+      <c r="BH233">
         <v>8</v>
       </c>
-      <c r="BI232">
+      <c r="BI233">
         <v>10</v>
       </c>
-      <c r="BJ232">
+      <c r="BJ233">
         <v>12</v>
       </c>
-      <c r="BK232">
+      <c r="BK233">
         <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1565024</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44870.52083333334</v>
+      </c>
+      <c r="F234">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>73</v>
+      </c>
+      <c r="H234" t="s">
+        <v>75</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>5</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>5</v>
+      </c>
+      <c r="O234" t="s">
+        <v>237</v>
+      </c>
+      <c r="P234" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q234">
+        <v>2</v>
+      </c>
+      <c r="R234">
+        <v>3</v>
+      </c>
+      <c r="S234">
+        <v>5</v>
+      </c>
+      <c r="T234">
+        <v>2.41</v>
+      </c>
+      <c r="U234">
+        <v>2.21</v>
+      </c>
+      <c r="V234">
+        <v>4.72</v>
+      </c>
+      <c r="W234">
+        <v>1.38</v>
+      </c>
+      <c r="X234">
+        <v>2.94</v>
+      </c>
+      <c r="Y234">
+        <v>2.74</v>
+      </c>
+      <c r="Z234">
+        <v>1.43</v>
+      </c>
+      <c r="AA234">
+        <v>6.9</v>
+      </c>
+      <c r="AB234">
+        <v>1.09</v>
+      </c>
+      <c r="AC234">
+        <v>1.8</v>
+      </c>
+      <c r="AD234">
+        <v>3.45</v>
+      </c>
+      <c r="AE234">
+        <v>3.9</v>
+      </c>
+      <c r="AF234">
+        <v>1.03</v>
+      </c>
+      <c r="AG234">
+        <v>10.5</v>
+      </c>
+      <c r="AH234">
+        <v>1.29</v>
+      </c>
+      <c r="AI234">
+        <v>3.61</v>
+      </c>
+      <c r="AJ234">
+        <v>1.93</v>
+      </c>
+      <c r="AK234">
+        <v>1.93</v>
+      </c>
+      <c r="AL234">
+        <v>1.79</v>
+      </c>
+      <c r="AM234">
+        <v>1.98</v>
+      </c>
+      <c r="AN234">
+        <v>1.22</v>
+      </c>
+      <c r="AO234">
+        <v>1.27</v>
+      </c>
+      <c r="AP234">
+        <v>1.96</v>
+      </c>
+      <c r="AQ234">
+        <v>1.93</v>
+      </c>
+      <c r="AR234">
+        <v>0.86</v>
+      </c>
+      <c r="AS234">
+        <v>2</v>
+      </c>
+      <c r="AT234">
+        <v>0.8</v>
+      </c>
+      <c r="AU234">
+        <v>1.68</v>
+      </c>
+      <c r="AV234">
+        <v>1.63</v>
+      </c>
+      <c r="AW234">
+        <v>3.31</v>
+      </c>
+      <c r="AX234">
+        <v>1.77</v>
+      </c>
+      <c r="AY234">
+        <v>7.8</v>
+      </c>
+      <c r="AZ234">
+        <v>2.58</v>
+      </c>
+      <c r="BA234">
+        <v>1.24</v>
+      </c>
+      <c r="BB234">
+        <v>1.48</v>
+      </c>
+      <c r="BC234">
+        <v>1.88</v>
+      </c>
+      <c r="BD234">
+        <v>2.38</v>
+      </c>
+      <c r="BE234">
+        <v>3.2</v>
+      </c>
+      <c r="BF234">
+        <v>14</v>
+      </c>
+      <c r="BG234">
+        <v>2</v>
+      </c>
+      <c r="BH234">
+        <v>11</v>
+      </c>
+      <c r="BI234">
+        <v>6</v>
+      </c>
+      <c r="BJ234">
+        <v>25</v>
+      </c>
+      <c r="BK234">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>1565021</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44870.52083333334</v>
+      </c>
+      <c r="F235">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>65</v>
+      </c>
+      <c r="H235" t="s">
+        <v>74</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="O235" t="s">
+        <v>238</v>
+      </c>
+      <c r="P235" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q235">
+        <v>6</v>
+      </c>
+      <c r="R235">
+        <v>6</v>
+      </c>
+      <c r="S235">
+        <v>12</v>
+      </c>
+      <c r="T235">
+        <v>3.35</v>
+      </c>
+      <c r="U235">
+        <v>2.07</v>
+      </c>
+      <c r="V235">
+        <v>3.73</v>
+      </c>
+      <c r="W235">
+        <v>1.5</v>
+      </c>
+      <c r="X235">
+        <v>2.61</v>
+      </c>
+      <c r="Y235">
+        <v>3.32</v>
+      </c>
+      <c r="Z235">
+        <v>1.31</v>
+      </c>
+      <c r="AA235">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB235">
+        <v>1.05</v>
+      </c>
+      <c r="AC235">
+        <v>2.45</v>
+      </c>
+      <c r="AD235">
+        <v>2.95</v>
+      </c>
+      <c r="AE235">
+        <v>2.85</v>
+      </c>
+      <c r="AF235">
+        <v>1.09</v>
+      </c>
+      <c r="AG235">
+        <v>7</v>
+      </c>
+      <c r="AH235">
+        <v>1.45</v>
+      </c>
+      <c r="AI235">
+        <v>2.7</v>
+      </c>
+      <c r="AJ235">
+        <v>2.25</v>
+      </c>
+      <c r="AK235">
+        <v>1.57</v>
+      </c>
+      <c r="AL235">
+        <v>1.98</v>
+      </c>
+      <c r="AM235">
+        <v>1.83</v>
+      </c>
+      <c r="AN235">
+        <v>1.4</v>
+      </c>
+      <c r="AO235">
+        <v>1.39</v>
+      </c>
+      <c r="AP235">
+        <v>1.51</v>
+      </c>
+      <c r="AQ235">
+        <v>1.93</v>
+      </c>
+      <c r="AR235">
+        <v>1.36</v>
+      </c>
+      <c r="AS235">
+        <v>2</v>
+      </c>
+      <c r="AT235">
+        <v>1.27</v>
+      </c>
+      <c r="AU235">
+        <v>1.64</v>
+      </c>
+      <c r="AV235">
+        <v>1.56</v>
+      </c>
+      <c r="AW235">
+        <v>3.2</v>
+      </c>
+      <c r="AX235">
+        <v>1.92</v>
+      </c>
+      <c r="AY235">
+        <v>7.5</v>
+      </c>
+      <c r="AZ235">
+        <v>2.31</v>
+      </c>
+      <c r="BA235">
+        <v>1.32</v>
+      </c>
+      <c r="BB235">
+        <v>1.62</v>
+      </c>
+      <c r="BC235">
+        <v>2.1</v>
+      </c>
+      <c r="BD235">
+        <v>2.77</v>
+      </c>
+      <c r="BE235">
+        <v>3.86</v>
+      </c>
+      <c r="BF235">
+        <v>7</v>
+      </c>
+      <c r="BG235">
+        <v>7</v>
+      </c>
+      <c r="BH235">
+        <v>8</v>
+      </c>
+      <c r="BI235">
+        <v>12</v>
+      </c>
+      <c r="BJ235">
+        <v>15</v>
+      </c>
+      <c r="BK235">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1565020</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44870.52083333334</v>
+      </c>
+      <c r="F236">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>76</v>
+      </c>
+      <c r="H236" t="s">
+        <v>80</v>
+      </c>
+      <c r="I236">
+        <v>3</v>
+      </c>
+      <c r="J236">
+        <v>2</v>
+      </c>
+      <c r="K236">
+        <v>5</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
+        <v>4</v>
+      </c>
+      <c r="N236">
+        <v>7</v>
+      </c>
+      <c r="O236" t="s">
+        <v>239</v>
+      </c>
+      <c r="P236" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q236">
+        <v>5</v>
+      </c>
+      <c r="R236">
+        <v>6</v>
+      </c>
+      <c r="S236">
+        <v>11</v>
+      </c>
+      <c r="T236">
+        <v>3.38</v>
+      </c>
+      <c r="U236">
+        <v>2.18</v>
+      </c>
+      <c r="V236">
+        <v>3.02</v>
+      </c>
+      <c r="W236">
+        <v>1.38</v>
+      </c>
+      <c r="X236">
+        <v>2.94</v>
+      </c>
+      <c r="Y236">
+        <v>2.74</v>
+      </c>
+      <c r="Z236">
+        <v>1.43</v>
+      </c>
+      <c r="AA236">
+        <v>6.8</v>
+      </c>
+      <c r="AB236">
+        <v>1.09</v>
+      </c>
+      <c r="AC236">
+        <v>2.16</v>
+      </c>
+      <c r="AD236">
+        <v>3.2</v>
+      </c>
+      <c r="AE236">
+        <v>3.1</v>
+      </c>
+      <c r="AF236">
+        <v>1.03</v>
+      </c>
+      <c r="AG236">
+        <v>10</v>
+      </c>
+      <c r="AH236">
+        <v>1.25</v>
+      </c>
+      <c r="AI236">
+        <v>3.8</v>
+      </c>
+      <c r="AJ236">
+        <v>1.93</v>
+      </c>
+      <c r="AK236">
+        <v>1.93</v>
+      </c>
+      <c r="AL236">
+        <v>1.69</v>
+      </c>
+      <c r="AM236">
+        <v>2.11</v>
+      </c>
+      <c r="AN236">
+        <v>1.54</v>
+      </c>
+      <c r="AO236">
+        <v>1.3</v>
+      </c>
+      <c r="AP236">
+        <v>1.44</v>
+      </c>
+      <c r="AQ236">
+        <v>1.36</v>
+      </c>
+      <c r="AR236">
+        <v>0.86</v>
+      </c>
+      <c r="AS236">
+        <v>1.27</v>
+      </c>
+      <c r="AT236">
+        <v>1</v>
+      </c>
+      <c r="AU236">
+        <v>1.68</v>
+      </c>
+      <c r="AV236">
+        <v>1.51</v>
+      </c>
+      <c r="AW236">
+        <v>3.19</v>
+      </c>
+      <c r="AX236">
+        <v>2.21</v>
+      </c>
+      <c r="AY236">
+        <v>7.4</v>
+      </c>
+      <c r="AZ236">
+        <v>2</v>
+      </c>
+      <c r="BA236">
+        <v>1.36</v>
+      </c>
+      <c r="BB236">
+        <v>1.67</v>
+      </c>
+      <c r="BC236">
+        <v>2.13</v>
+      </c>
+      <c r="BD236">
+        <v>2.79</v>
+      </c>
+      <c r="BE236">
+        <v>4</v>
+      </c>
+      <c r="BF236">
+        <v>10</v>
+      </c>
+      <c r="BG236">
+        <v>7</v>
+      </c>
+      <c r="BH236">
+        <v>5</v>
+      </c>
+      <c r="BI236">
+        <v>10</v>
+      </c>
+      <c r="BJ236">
+        <v>15</v>
+      </c>
+      <c r="BK236">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>1565023</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>67</v>
+      </c>
+      <c r="H237" t="s">
+        <v>72</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237" t="s">
+        <v>148</v>
+      </c>
+      <c r="P237" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q237">
+        <v>6</v>
+      </c>
+      <c r="R237">
+        <v>1</v>
+      </c>
+      <c r="S237">
+        <v>7</v>
+      </c>
+      <c r="T237">
+        <v>3.11</v>
+      </c>
+      <c r="U237">
+        <v>2.16</v>
+      </c>
+      <c r="V237">
+        <v>3.76</v>
+      </c>
+      <c r="W237">
+        <v>1.44</v>
+      </c>
+      <c r="X237">
+        <v>2.83</v>
+      </c>
+      <c r="Y237">
+        <v>3.2</v>
+      </c>
+      <c r="Z237">
+        <v>1.36</v>
+      </c>
+      <c r="AA237">
+        <v>7.8</v>
+      </c>
+      <c r="AB237">
+        <v>1.07</v>
+      </c>
+      <c r="AC237">
+        <v>2.19</v>
+      </c>
+      <c r="AD237">
+        <v>3.35</v>
+      </c>
+      <c r="AE237">
+        <v>2.9</v>
+      </c>
+      <c r="AF237">
+        <v>1.03</v>
+      </c>
+      <c r="AG237">
+        <v>8.4</v>
+      </c>
+      <c r="AH237">
+        <v>1.32</v>
+      </c>
+      <c r="AI237">
+        <v>3.1</v>
+      </c>
+      <c r="AJ237">
+        <v>2</v>
+      </c>
+      <c r="AK237">
+        <v>1.78</v>
+      </c>
+      <c r="AL237">
+        <v>1.81</v>
+      </c>
+      <c r="AM237">
+        <v>1.99</v>
+      </c>
+      <c r="AN237">
+        <v>1.38</v>
+      </c>
+      <c r="AO237">
+        <v>1.34</v>
+      </c>
+      <c r="AP237">
+        <v>1.6</v>
+      </c>
+      <c r="AQ237">
+        <v>1.21</v>
+      </c>
+      <c r="AR237">
+        <v>1.21</v>
+      </c>
+      <c r="AS237">
+        <v>1.2</v>
+      </c>
+      <c r="AT237">
+        <v>1.2</v>
+      </c>
+      <c r="AU237">
+        <v>1.56</v>
+      </c>
+      <c r="AV237">
+        <v>1.66</v>
+      </c>
+      <c r="AW237">
+        <v>3.22</v>
+      </c>
+      <c r="AX237">
+        <v>1.85</v>
+      </c>
+      <c r="AY237">
+        <v>7.5</v>
+      </c>
+      <c r="AZ237">
+        <v>2.29</v>
+      </c>
+      <c r="BA237">
+        <v>1.32</v>
+      </c>
+      <c r="BB237">
+        <v>1.6</v>
+      </c>
+      <c r="BC237">
+        <v>2.05</v>
+      </c>
+      <c r="BD237">
+        <v>2.75</v>
+      </c>
+      <c r="BE237">
+        <v>4</v>
+      </c>
+      <c r="BF237">
+        <v>6</v>
+      </c>
+      <c r="BG237">
+        <v>4</v>
+      </c>
+      <c r="BH237">
+        <v>4</v>
+      </c>
+      <c r="BI237">
+        <v>5</v>
+      </c>
+      <c r="BJ237">
+        <v>10</v>
+      </c>
+      <c r="BK237">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1565019</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>68</v>
+      </c>
+      <c r="H238" t="s">
+        <v>78</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>84</v>
+      </c>
+      <c r="P238" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q238">
+        <v>7</v>
+      </c>
+      <c r="R238">
+        <v>7</v>
+      </c>
+      <c r="S238">
+        <v>14</v>
+      </c>
+      <c r="T238">
+        <v>3.8</v>
+      </c>
+      <c r="U238">
+        <v>2.15</v>
+      </c>
+      <c r="V238">
+        <v>2.79</v>
+      </c>
+      <c r="W238">
+        <v>1.4</v>
+      </c>
+      <c r="X238">
+        <v>2.86</v>
+      </c>
+      <c r="Y238">
+        <v>2.82</v>
+      </c>
+      <c r="Z238">
+        <v>1.41</v>
+      </c>
+      <c r="AA238">
+        <v>7.2</v>
+      </c>
+      <c r="AB238">
+        <v>1.08</v>
+      </c>
+      <c r="AC238">
+        <v>2.9</v>
+      </c>
+      <c r="AD238">
+        <v>3.4</v>
+      </c>
+      <c r="AE238">
+        <v>2.17</v>
+      </c>
+      <c r="AF238">
+        <v>1.02</v>
+      </c>
+      <c r="AG238">
+        <v>9.1</v>
+      </c>
+      <c r="AH238">
+        <v>1.29</v>
+      </c>
+      <c r="AI238">
+        <v>3.36</v>
+      </c>
+      <c r="AJ238">
+        <v>1.93</v>
+      </c>
+      <c r="AK238">
+        <v>1.95</v>
+      </c>
+      <c r="AL238">
+        <v>1.75</v>
+      </c>
+      <c r="AM238">
+        <v>2.03</v>
+      </c>
+      <c r="AN238">
+        <v>1.66</v>
+      </c>
+      <c r="AO238">
+        <v>1.3</v>
+      </c>
+      <c r="AP238">
+        <v>1.35</v>
+      </c>
+      <c r="AQ238">
+        <v>1.29</v>
+      </c>
+      <c r="AR238">
+        <v>1</v>
+      </c>
+      <c r="AS238">
+        <v>1.2</v>
+      </c>
+      <c r="AT238">
+        <v>1.13</v>
+      </c>
+      <c r="AU238">
+        <v>1.73</v>
+      </c>
+      <c r="AV238">
+        <v>1.47</v>
+      </c>
+      <c r="AW238">
+        <v>3.2</v>
+      </c>
+      <c r="AX238">
+        <v>2</v>
+      </c>
+      <c r="AY238">
+        <v>8</v>
+      </c>
+      <c r="AZ238">
+        <v>2.05</v>
+      </c>
+      <c r="BA238">
+        <v>1.3</v>
+      </c>
+      <c r="BB238">
+        <v>1.57</v>
+      </c>
+      <c r="BC238">
+        <v>2</v>
+      </c>
+      <c r="BD238">
+        <v>2.62</v>
+      </c>
+      <c r="BE238">
+        <v>3.56</v>
+      </c>
+      <c r="BF238">
+        <v>6</v>
+      </c>
+      <c r="BG238">
+        <v>6</v>
+      </c>
+      <c r="BH238">
+        <v>10</v>
+      </c>
+      <c r="BI238">
+        <v>4</v>
+      </c>
+      <c r="BJ238">
+        <v>16</v>
+      </c>
+      <c r="BK238">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1565018</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>79</v>
+      </c>
+      <c r="H239" t="s">
+        <v>70</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>188</v>
+      </c>
+      <c r="P239" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q239">
+        <v>4</v>
+      </c>
+      <c r="R239">
+        <v>9</v>
+      </c>
+      <c r="S239">
+        <v>13</v>
+      </c>
+      <c r="T239">
+        <v>3.18</v>
+      </c>
+      <c r="U239">
+        <v>2.04</v>
+      </c>
+      <c r="V239">
+        <v>3.54</v>
+      </c>
+      <c r="W239">
+        <v>1.46</v>
+      </c>
+      <c r="X239">
+        <v>2.64</v>
+      </c>
+      <c r="Y239">
+        <v>3.14</v>
+      </c>
+      <c r="Z239">
+        <v>1.34</v>
+      </c>
+      <c r="AA239">
+        <v>8.4</v>
+      </c>
+      <c r="AB239">
+        <v>1.06</v>
+      </c>
+      <c r="AC239">
+        <v>2.69</v>
+      </c>
+      <c r="AD239">
+        <v>3</v>
+      </c>
+      <c r="AE239">
+        <v>2.52</v>
+      </c>
+      <c r="AF239">
+        <v>1.04</v>
+      </c>
+      <c r="AG239">
+        <v>7.8</v>
+      </c>
+      <c r="AH239">
+        <v>1.36</v>
+      </c>
+      <c r="AI239">
+        <v>2.92</v>
+      </c>
+      <c r="AJ239">
+        <v>2.2</v>
+      </c>
+      <c r="AK239">
+        <v>1.65</v>
+      </c>
+      <c r="AL239">
+        <v>1.88</v>
+      </c>
+      <c r="AM239">
+        <v>1.88</v>
+      </c>
+      <c r="AN239">
+        <v>1.43</v>
+      </c>
+      <c r="AO239">
+        <v>1.33</v>
+      </c>
+      <c r="AP239">
+        <v>1.51</v>
+      </c>
+      <c r="AQ239">
+        <v>2.14</v>
+      </c>
+      <c r="AR239">
+        <v>1.79</v>
+      </c>
+      <c r="AS239">
+        <v>2.07</v>
+      </c>
+      <c r="AT239">
+        <v>1.73</v>
+      </c>
+      <c r="AU239">
+        <v>1.96</v>
+      </c>
+      <c r="AV239">
+        <v>1.68</v>
+      </c>
+      <c r="AW239">
+        <v>3.64</v>
+      </c>
+      <c r="AX239">
+        <v>2.33</v>
+      </c>
+      <c r="AY239">
+        <v>7.5</v>
+      </c>
+      <c r="AZ239">
+        <v>1.85</v>
+      </c>
+      <c r="BA239">
+        <v>1.37</v>
+      </c>
+      <c r="BB239">
+        <v>1.68</v>
+      </c>
+      <c r="BC239">
+        <v>2.2</v>
+      </c>
+      <c r="BD239">
+        <v>3.1</v>
+      </c>
+      <c r="BE239">
+        <v>4.7</v>
+      </c>
+      <c r="BF239">
+        <v>4</v>
+      </c>
+      <c r="BG239">
+        <v>5</v>
+      </c>
+      <c r="BH239">
+        <v>6</v>
+      </c>
+      <c r="BI239">
+        <v>8</v>
+      </c>
+      <c r="BJ239">
+        <v>10</v>
+      </c>
+      <c r="BK239">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>1565985</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>71</v>
+      </c>
+      <c r="H240" t="s">
+        <v>77</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>2</v>
+      </c>
+      <c r="L240">
+        <v>3</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>240</v>
+      </c>
+      <c r="P240" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q240">
+        <v>7</v>
+      </c>
+      <c r="R240">
+        <v>6</v>
+      </c>
+      <c r="S240">
+        <v>13</v>
+      </c>
+      <c r="T240">
+        <v>2.09</v>
+      </c>
+      <c r="U240">
+        <v>2.43</v>
+      </c>
+      <c r="V240">
+        <v>5.25</v>
+      </c>
+      <c r="W240">
+        <v>1.3</v>
+      </c>
+      <c r="X240">
+        <v>3.4</v>
+      </c>
+      <c r="Y240">
+        <v>2.39</v>
+      </c>
+      <c r="Z240">
+        <v>1.55</v>
+      </c>
+      <c r="AA240">
+        <v>5.55</v>
+      </c>
+      <c r="AB240">
+        <v>1.13</v>
+      </c>
+      <c r="AC240">
+        <v>1.52</v>
+      </c>
+      <c r="AD240">
+        <v>4.15</v>
+      </c>
+      <c r="AE240">
+        <v>4.95</v>
+      </c>
+      <c r="AF240">
+        <v>1.01</v>
+      </c>
+      <c r="AG240">
+        <v>10.25</v>
+      </c>
+      <c r="AH240">
+        <v>1.18</v>
+      </c>
+      <c r="AI240">
+        <v>4.45</v>
+      </c>
+      <c r="AJ240">
+        <v>1.75</v>
+      </c>
+      <c r="AK240">
+        <v>2.05</v>
+      </c>
+      <c r="AL240">
+        <v>1.69</v>
+      </c>
+      <c r="AM240">
+        <v>2.11</v>
+      </c>
+      <c r="AN240">
+        <v>1.14</v>
+      </c>
+      <c r="AO240">
+        <v>1.21</v>
+      </c>
+      <c r="AP240">
+        <v>2.39</v>
+      </c>
+      <c r="AQ240">
+        <v>1.36</v>
+      </c>
+      <c r="AR240">
+        <v>0.86</v>
+      </c>
+      <c r="AS240">
+        <v>1.47</v>
+      </c>
+      <c r="AT240">
+        <v>0.8</v>
+      </c>
+      <c r="AU240">
+        <v>1.75</v>
+      </c>
+      <c r="AV240">
+        <v>1.22</v>
+      </c>
+      <c r="AW240">
+        <v>2.97</v>
+      </c>
+      <c r="AX240">
+        <v>1.26</v>
+      </c>
+      <c r="AY240">
+        <v>10</v>
+      </c>
+      <c r="AZ240">
+        <v>4.64</v>
+      </c>
+      <c r="BA240">
+        <v>1.24</v>
+      </c>
+      <c r="BB240">
+        <v>1.46</v>
+      </c>
+      <c r="BC240">
+        <v>1.85</v>
+      </c>
+      <c r="BD240">
+        <v>2.4</v>
+      </c>
+      <c r="BE240">
+        <v>3.3</v>
+      </c>
+      <c r="BF240">
+        <v>5</v>
+      </c>
+      <c r="BG240">
+        <v>4</v>
+      </c>
+      <c r="BH240">
+        <v>4</v>
+      </c>
+      <c r="BI240">
+        <v>4</v>
+      </c>
+      <c r="BJ240">
+        <v>9</v>
+      </c>
+      <c r="BK240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>1565022</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44871.79166666666</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241" t="s">
+        <v>69</v>
+      </c>
+      <c r="H241" t="s">
+        <v>66</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>3</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241">
+        <v>3</v>
+      </c>
+      <c r="O241" t="s">
+        <v>241</v>
+      </c>
+      <c r="P241" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q241">
+        <v>3</v>
+      </c>
+      <c r="R241">
+        <v>8</v>
+      </c>
+      <c r="S241">
+        <v>11</v>
+      </c>
+      <c r="T241">
+        <v>2.45</v>
+      </c>
+      <c r="U241">
+        <v>2.26</v>
+      </c>
+      <c r="V241">
+        <v>4.36</v>
+      </c>
+      <c r="W241">
+        <v>1.34</v>
+      </c>
+      <c r="X241">
+        <v>3.14</v>
+      </c>
+      <c r="Y241">
+        <v>2.57</v>
+      </c>
+      <c r="Z241">
+        <v>1.48</v>
+      </c>
+      <c r="AA241">
+        <v>6.3</v>
+      </c>
+      <c r="AB241">
+        <v>1.1</v>
+      </c>
+      <c r="AC241">
+        <v>1.57</v>
+      </c>
+      <c r="AD241">
+        <v>3.9</v>
+      </c>
+      <c r="AE241">
+        <v>4.9</v>
+      </c>
+      <c r="AF241">
+        <v>1.02</v>
+      </c>
+      <c r="AG241">
+        <v>11.5</v>
+      </c>
+      <c r="AH241">
+        <v>1.24</v>
+      </c>
+      <c r="AI241">
+        <v>3.85</v>
+      </c>
+      <c r="AJ241">
+        <v>1.8</v>
+      </c>
+      <c r="AK241">
+        <v>2.08</v>
+      </c>
+      <c r="AL241">
+        <v>1.68</v>
+      </c>
+      <c r="AM241">
+        <v>2.13</v>
+      </c>
+      <c r="AN241">
+        <v>1.26</v>
+      </c>
+      <c r="AO241">
+        <v>1.27</v>
+      </c>
+      <c r="AP241">
+        <v>1.89</v>
+      </c>
+      <c r="AQ241">
+        <v>1.57</v>
+      </c>
+      <c r="AR241">
+        <v>1.36</v>
+      </c>
+      <c r="AS241">
+        <v>1.67</v>
+      </c>
+      <c r="AT241">
+        <v>1.27</v>
+      </c>
+      <c r="AU241">
+        <v>1.8</v>
+      </c>
+      <c r="AV241">
+        <v>1.76</v>
+      </c>
+      <c r="AW241">
+        <v>3.56</v>
+      </c>
+      <c r="AX241">
+        <v>2</v>
+      </c>
+      <c r="AY241">
+        <v>8</v>
+      </c>
+      <c r="AZ241">
+        <v>2.05</v>
+      </c>
+      <c r="BA241">
+        <v>1.26</v>
+      </c>
+      <c r="BB241">
+        <v>1.52</v>
+      </c>
+      <c r="BC241">
+        <v>1.95</v>
+      </c>
+      <c r="BD241">
+        <v>2.47</v>
+      </c>
+      <c r="BE241">
+        <v>3.34</v>
+      </c>
+      <c r="BF241">
+        <v>4</v>
+      </c>
+      <c r="BG241">
+        <v>4</v>
+      </c>
+      <c r="BH241">
+        <v>8</v>
+      </c>
+      <c r="BI241">
+        <v>8</v>
+      </c>
+      <c r="BJ241">
+        <v>12</v>
+      </c>
+      <c r="BK241">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
